--- a/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
+++ b/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sappanimuthu.balasub\Documents\LIN_BO_Revamp\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2333C34-CDD0-4860-B9E4-0C796497F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B2333C34-CDD0-4860-B9E4-0C796497F9A7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{AA5FD2E5-D388-4DEF-A183-91A785FA9E28}"/>
+    <workbookView activeTab="2" windowHeight="10560" windowWidth="19420" xWindow="-110" xr2:uid="{AA5FD2E5-D388-4DEF-A183-91A785FA9E28}" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Both_BO_Value" sheetId="1" r:id="rId1"/>
-    <sheet name="Inside_Values" sheetId="4" r:id="rId2"/>
-    <sheet name="Differences" sheetId="2" r:id="rId3"/>
-    <sheet name="Sales_Report" sheetId="5" r:id="rId4"/>
+    <sheet name="Both_BO_Value" r:id="rId1" sheetId="1"/>
+    <sheet name="Inside_Values" r:id="rId2" sheetId="4"/>
+    <sheet name="Differences" r:id="rId3" sheetId="2"/>
+    <sheet name="Sales_Report" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="204">
   <si>
     <t>Sales</t>
   </si>
@@ -582,13 +582,83 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>19,768.02</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>12.38</t>
+  </si>
+  <si>
+    <t>1,630.64</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>135.68</t>
+  </si>
+  <si>
+    <t>87.78%</t>
+  </si>
+  <si>
+    <t>21,401.66</t>
+  </si>
+  <si>
+    <t>21,513.66</t>
+  </si>
+  <si>
+    <t>1,182.09</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>2.44%</t>
+  </si>
+  <si>
+    <t>21,592.72</t>
+  </si>
+  <si>
+    <t>0.63%</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.69%</t>
+  </si>
+  <si>
+    <t>10,859.60</t>
+  </si>
+  <si>
+    <t>2,504.85</t>
+  </si>
+  <si>
+    <t>4,070</t>
+  </si>
+  <si>
+    <t>206.60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="155" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="250" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,6 +1285,386 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1261,7 +1711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="116">
     <border>
       <left/>
       <right/>
@@ -1314,520 +1764,1673 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="267">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="123" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="107" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="109" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="111" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="113" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="118" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="123" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="124" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="126" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="128" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="129" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="131" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="133" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="134" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="136" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="138" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="139" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="140" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="144" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="149" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="150" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="152" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="153" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="154" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="241" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="243" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="245" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="41">
     <dxf>
@@ -2163,7 +3766,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2180,10 +3783,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2218,7 +3821,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2270,7 +3873,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2381,21 +3984,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2412,7 +4015,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2464,14 +4067,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8461D5C9-C633-44D2-A2F6-895739E4A308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8461D5C9-C633-44D2-A2F6-895739E4A308}">
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -2480,14 +4083,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -3302,7 +4905,9 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="201" t="s">
+        <v>181</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -3338,7 +4943,9 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="202" t="s">
+        <v>182</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
@@ -3374,7 +4981,9 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="203" t="s">
+        <v>183</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>180</v>
       </c>
@@ -3410,7 +5019,9 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="204" t="s">
+        <v>183</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>180</v>
       </c>
@@ -3448,7 +5059,9 @@
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="205" t="s">
+        <v>184</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>180</v>
       </c>
@@ -3488,7 +5101,9 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="206" t="s">
+        <v>185</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
@@ -3534,7 +5149,9 @@
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="207" t="s">
+        <v>186</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>180</v>
       </c>
@@ -3580,7 +5197,9 @@
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="208" t="s">
+        <v>187</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>180</v>
       </c>
@@ -3626,7 +5245,9 @@
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1"/>
+      <c r="B30" s="209" t="s">
+        <v>182</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>180</v>
       </c>
@@ -3672,7 +5293,9 @@
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="210" t="s">
+        <v>199</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>180</v>
       </c>
@@ -3718,7 +5341,9 @@
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="211" t="s">
+        <v>188</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>180</v>
       </c>
@@ -3831,12 +5456,12 @@
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="O20:P20"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AD18B4-AA5C-4DAC-B720-8E364BC00296}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AD18B4-AA5C-4DAC-B720-8E364BC00296}">
   <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -3845,11 +5470,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4" collapsed="1"/>
-    <col min="2" max="2" width="36" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.36328125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.36328125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="1" max="1" style="4" width="8.7265625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="4" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="12.36328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="11.36328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3875,9 +5500,11 @@
         <v>56</v>
       </c>
       <c r="C2" s="19"/>
-      <c r="D2" s="6"/>
+      <c r="D2" s="212" t="s">
+        <v>181</v>
+      </c>
       <c r="E2" s="167">
-        <f t="shared" ref="E2:E45" si="0">C2-D2</f>
+        <f ref="E2:E45" si="0" t="shared">C2-D2</f>
         <v>0</v>
       </c>
     </row>
@@ -3889,7 +5516,9 @@
       <c r="C3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="213" t="s">
+        <v>184</v>
+      </c>
       <c r="E3" s="167">
         <f>C3-D3</f>
         <v>122.36</v>
@@ -3903,9 +5532,11 @@
       <c r="C4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="214" t="s">
+        <v>187</v>
+      </c>
       <c r="E4" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -3917,9 +5548,11 @@
       <c r="C5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="215" t="s">
+        <v>189</v>
+      </c>
       <c r="E5" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -3931,9 +5564,11 @@
       <c r="C6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="216" t="s">
+        <v>184</v>
+      </c>
       <c r="E6" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -3945,9 +5580,11 @@
       <c r="C7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="217" t="s">
+        <v>102</v>
+      </c>
       <c r="E7" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -3959,9 +5596,11 @@
       <c r="C8" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="218" t="s">
+        <v>102</v>
+      </c>
       <c r="E8" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -3973,9 +5612,11 @@
       <c r="C9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="219" t="s">
+        <v>102</v>
+      </c>
       <c r="E9" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -3987,9 +5628,11 @@
       <c r="C10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="220" t="s">
+        <v>190</v>
+      </c>
       <c r="E10" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -4001,9 +5644,11 @@
       <c r="C11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="221" t="s">
+        <v>191</v>
+      </c>
       <c r="E11" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>87</v>
       </c>
     </row>
@@ -4015,9 +5660,11 @@
       <c r="C12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" s="222" t="s">
+        <v>187</v>
+      </c>
       <c r="E12" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -4029,9 +5676,11 @@
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="223" t="s">
+        <v>192</v>
+      </c>
       <c r="E13" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
     </row>
@@ -4043,9 +5692,11 @@
       <c r="C14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="224" t="s">
+        <v>193</v>
+      </c>
       <c r="E14" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>2.4300000000000002</v>
       </c>
     </row>
@@ -4057,9 +5708,11 @@
       <c r="C15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="225" t="s">
+        <v>185</v>
+      </c>
       <c r="E15" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>124</v>
       </c>
     </row>
@@ -4071,9 +5724,11 @@
       <c r="C16" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="226" t="s">
+        <v>194</v>
+      </c>
       <c r="E16" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>3.2300000000000002E-2</v>
       </c>
     </row>
@@ -4085,9 +5740,11 @@
       <c r="C17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="227" t="s">
+        <v>195</v>
+      </c>
       <c r="E17" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
     </row>
@@ -4099,9 +5756,11 @@
       <c r="C18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="228" t="s">
+        <v>196</v>
+      </c>
       <c r="E18" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4113,9 +5772,11 @@
       <c r="C19" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" s="229" t="s">
+        <v>197</v>
+      </c>
       <c r="E19" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4</v>
       </c>
     </row>
@@ -4127,7 +5788,7 @@
       <c r="C20" s="37"/>
       <c r="D20" s="6"/>
       <c r="E20" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4139,9 +5800,11 @@
       <c r="C21" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21" s="230" t="s">
+        <v>200</v>
+      </c>
       <c r="E21" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>24.97</v>
       </c>
     </row>
@@ -4153,7 +5816,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +5828,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4179,7 +5842,7 @@
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>54.59</v>
       </c>
     </row>
@@ -4193,7 +5856,7 @@
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -4207,7 +5870,7 @@
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4221,7 +5884,7 @@
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
     </row>
@@ -4235,7 +5898,7 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>54.59</v>
       </c>
     </row>
@@ -4249,7 +5912,7 @@
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -4263,7 +5926,7 @@
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4277,7 +5940,7 @@
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
     </row>
@@ -4289,7 +5952,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +5964,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4315,7 +5978,7 @@
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4329,7 +5992,7 @@
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4343,7 +6006,7 @@
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
     </row>
@@ -4357,7 +6020,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4369,7 +6032,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4381,7 +6044,7 @@
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4393,7 +6056,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4405,7 +6068,7 @@
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4417,7 +6080,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4429,7 +6092,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4441,7 +6104,7 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -4453,7 +6116,7 @@
       <c r="C45" s="85"/>
       <c r="D45" s="85"/>
       <c r="E45" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -6565,19 +8228,19 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E45">
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
+    <cfRule dxfId="28" operator="equal" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="greaterThan">
+    <cfRule dxfId="27" operator="greaterThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{6A8EA411-9737-410B-803F-B767DF546FBC}">
+          <x14:cfRule id="{6A8EA411-9737-410B-803F-B767DF546FBC}" operator="containsText" priority="1" type="containsText">
             <xm:f>NOT(ISERROR(SEARCH("-",E2)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>
@@ -6597,7 +8260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EEC30-26F5-4E4B-A202-0672BF52BF40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EEC30-26F5-4E4B-A202-0672BF52BF40}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6606,22 +8269,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.54296875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.54296875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="13.08984375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.54296875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.36328125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.90625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="12.54296875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.6328125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.08984375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.54296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.36328125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.36328125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.453125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.36328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -7386,88 +9049,88 @@
     <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule dxfId="20" operator="greaterThan" priority="21" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule dxfId="19" operator="equal" priority="20" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule dxfId="18" operator="lessThan" priority="19" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+    <cfRule dxfId="17" operator="lessThan" priority="16" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule dxfId="16" operator="equal" priority="17" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
+    <cfRule dxfId="15" operator="greaterThan" priority="18" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+    <cfRule dxfId="14" operator="lessThan" priority="13" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule dxfId="13" operator="equal" priority="14" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
+    <cfRule dxfId="12" operator="greaterThan" priority="15" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+    <cfRule dxfId="11" operator="lessThan" priority="10" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule dxfId="10" operator="equal" priority="11" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
+    <cfRule dxfId="9" operator="greaterThan" priority="12" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+    <cfRule dxfId="8" operator="lessThan" priority="7" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule dxfId="7" operator="equal" priority="8" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule dxfId="6" operator="greaterThan" priority="9" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N8">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+    <cfRule dxfId="5" operator="lessThan" priority="4" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule dxfId="4" operator="equal" priority="5" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
+    <cfRule dxfId="3" operator="greaterThan" priority="6" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule dxfId="2" operator="lessThan" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule dxfId="1" operator="equal" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule dxfId="0" operator="greaterThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27932D39-BE19-45BB-BA59-DCA53411D6F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27932D39-BE19-45BB-BA59-DCA53411D6F6}">
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7476,13 +9139,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="19" max="19" width="19.54296875" customWidth="1"/>
-    <col min="20" max="20" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="4" width="15.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.36328125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.6328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.81640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.54296875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -7528,7 +9191,7 @@
       </c>
       <c r="D3" s="84"/>
       <c r="E3" s="167">
-        <f t="shared" ref="E3:E66" si="0">C3-D3</f>
+        <f ref="E3:E66" si="0" t="shared">C3-D3</f>
         <v>226</v>
       </c>
     </row>
@@ -7542,7 +9205,7 @@
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -7556,7 +9219,7 @@
       </c>
       <c r="D5" s="84"/>
       <c r="E5" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7570,7 +9233,7 @@
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7586,7 +9249,7 @@
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -7600,7 +9263,7 @@
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
@@ -7614,7 +9277,7 @@
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -7628,7 +9291,7 @@
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7642,7 +9305,7 @@
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
@@ -7658,7 +9321,7 @@
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1410.04</v>
       </c>
     </row>
@@ -7672,7 +9335,7 @@
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>214</v>
       </c>
     </row>
@@ -7686,7 +9349,7 @@
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>116.28</v>
       </c>
     </row>
@@ -7700,7 +9363,7 @@
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7714,7 +9377,7 @@
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
@@ -7730,7 +9393,7 @@
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -7744,7 +9407,7 @@
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
@@ -7758,7 +9421,7 @@
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -7772,7 +9435,7 @@
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7786,7 +9449,7 @@
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
@@ -7800,9 +9463,11 @@
       <c r="C22" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="84"/>
+      <c r="D22" s="264" t="s">
+        <v>201</v>
+      </c>
       <c r="E22" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>179.55</v>
       </c>
     </row>
@@ -7814,9 +9479,11 @@
       <c r="C23" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="84"/>
+      <c r="D23" s="265" t="s">
+        <v>202</v>
+      </c>
       <c r="E23" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>295</v>
       </c>
     </row>
@@ -7828,9 +9495,11 @@
       <c r="C24" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="84"/>
+      <c r="D24" s="266" t="s">
+        <v>203</v>
+      </c>
       <c r="E24" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>14.81</v>
       </c>
     </row>
@@ -7846,7 +9515,7 @@
       </c>
       <c r="D25" s="84"/>
       <c r="E25" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -7860,7 +9529,7 @@
       </c>
       <c r="D26" s="84"/>
       <c r="E26" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -7874,7 +9543,7 @@
       </c>
       <c r="D27" s="84"/>
       <c r="E27" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
@@ -7888,7 +9557,7 @@
       </c>
       <c r="D28" s="84"/>
       <c r="E28" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7902,7 +9571,7 @@
       </c>
       <c r="D29" s="84"/>
       <c r="E29" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -7916,7 +9585,7 @@
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>124</v>
       </c>
     </row>
@@ -7932,7 +9601,7 @@
       </c>
       <c r="D31" s="84"/>
       <c r="E31" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -7946,7 +9615,7 @@
       </c>
       <c r="D32" s="84"/>
       <c r="E32" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -7960,7 +9629,7 @@
       </c>
       <c r="D33" s="84"/>
       <c r="E33" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -7974,7 +9643,7 @@
       </c>
       <c r="D34" s="84"/>
       <c r="E34" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -7990,7 +9659,7 @@
       </c>
       <c r="D35" s="84"/>
       <c r="E35" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -8004,7 +9673,7 @@
       </c>
       <c r="D36" s="84"/>
       <c r="E36" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -8018,7 +9687,7 @@
       </c>
       <c r="D37" s="84"/>
       <c r="E37" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -8032,7 +9701,7 @@
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -8046,7 +9715,7 @@
       </c>
       <c r="D39" s="84"/>
       <c r="E39" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -8060,7 +9729,7 @@
       </c>
       <c r="D40" s="84"/>
       <c r="E40" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
     </row>
@@ -8074,7 +9743,7 @@
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8088,7 +9757,7 @@
       </c>
       <c r="D42" s="84"/>
       <c r="E42" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8102,7 +9771,7 @@
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8114,7 +9783,7 @@
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
       <c r="E44" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8128,7 +9797,7 @@
       </c>
       <c r="D45" s="84"/>
       <c r="E45" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>-6.9099999999999995E-2</v>
       </c>
     </row>
@@ -8142,7 +9811,7 @@
       </c>
       <c r="D46" s="84"/>
       <c r="E46" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0.8</v>
       </c>
     </row>
@@ -8158,7 +9827,7 @@
       </c>
       <c r="D47" s="84"/>
       <c r="E47" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -8172,7 +9841,7 @@
       </c>
       <c r="D48" s="84"/>
       <c r="E48" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -8186,7 +9855,7 @@
       </c>
       <c r="D49" s="84"/>
       <c r="E49" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -8200,7 +9869,7 @@
       </c>
       <c r="D50" s="84"/>
       <c r="E50" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -8214,7 +9883,7 @@
       </c>
       <c r="D51" s="84"/>
       <c r="E51" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -8228,7 +9897,7 @@
       </c>
       <c r="D52" s="84"/>
       <c r="E52" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
     </row>
@@ -8242,7 +9911,7 @@
       </c>
       <c r="D53" s="84"/>
       <c r="E53" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8256,7 +9925,7 @@
       </c>
       <c r="D54" s="84"/>
       <c r="E54" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8270,7 +9939,7 @@
       </c>
       <c r="D55" s="84"/>
       <c r="E55" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8282,7 +9951,7 @@
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
       <c r="E56" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8296,7 +9965,7 @@
       </c>
       <c r="D57" s="84"/>
       <c r="E57" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>-6.9099999999999995E-2</v>
       </c>
     </row>
@@ -8310,7 +9979,7 @@
       </c>
       <c r="D58" s="84"/>
       <c r="E58" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0.8</v>
       </c>
     </row>
@@ -8326,7 +9995,7 @@
       </c>
       <c r="D59" s="84"/>
       <c r="E59" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>13169.84</v>
       </c>
     </row>
@@ -8340,7 +10009,7 @@
       </c>
       <c r="D60" s="84"/>
       <c r="E60" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>14380.02</v>
       </c>
     </row>
@@ -8354,7 +10023,7 @@
       </c>
       <c r="D61" s="84"/>
       <c r="E61" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>14257.09</v>
       </c>
     </row>
@@ -8368,7 +10037,7 @@
       </c>
       <c r="D62" s="84"/>
       <c r="E62" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>11.83</v>
       </c>
     </row>
@@ -8382,7 +10051,7 @@
       </c>
       <c r="D63" s="84"/>
       <c r="E63" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>12.8</v>
       </c>
     </row>
@@ -8396,7 +10065,7 @@
       </c>
       <c r="D64" s="84"/>
       <c r="E64" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>14345.09</v>
       </c>
     </row>
@@ -8410,7 +10079,7 @@
       </c>
       <c r="D65" s="84"/>
       <c r="E65" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>1086.25</v>
       </c>
     </row>
@@ -8424,7 +10093,7 @@
       </c>
       <c r="D66" s="84"/>
       <c r="E66" s="167">
-        <f t="shared" si="0"/>
+        <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8438,7 +10107,7 @@
       </c>
       <c r="D67" s="84"/>
       <c r="E67" s="167">
-        <f t="shared" ref="E67:E79" si="1">C67-D67</f>
+        <f ref="E67:E79" si="1" t="shared">C67-D67</f>
         <v>0</v>
       </c>
     </row>
@@ -8454,7 +10123,7 @@
       </c>
       <c r="D68" s="84"/>
       <c r="E68" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
@@ -8468,7 +10137,7 @@
       </c>
       <c r="D69" s="84"/>
       <c r="E69" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
@@ -8482,7 +10151,7 @@
       </c>
       <c r="D70" s="84"/>
       <c r="E70" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8496,7 +10165,7 @@
       </c>
       <c r="D71" s="84"/>
       <c r="E71" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8510,7 +10179,7 @@
       </c>
       <c r="D72" s="84"/>
       <c r="E72" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -8524,7 +10193,7 @@
       </c>
       <c r="D73" s="84"/>
       <c r="E73" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
@@ -8540,7 +10209,7 @@
       </c>
       <c r="D74" s="84"/>
       <c r="E74" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
@@ -8554,7 +10223,7 @@
       </c>
       <c r="D75" s="84"/>
       <c r="E75" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8568,7 +10237,7 @@
       </c>
       <c r="D76" s="84"/>
       <c r="E76" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0.81</v>
       </c>
     </row>
@@ -8582,7 +10251,7 @@
       </c>
       <c r="D77" s="84"/>
       <c r="E77" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8596,7 +10265,7 @@
       </c>
       <c r="D78" s="84"/>
       <c r="E78" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
@@ -8610,7 +10279,7 @@
       </c>
       <c r="D79" s="84"/>
       <c r="E79" s="167">
-        <f t="shared" si="1"/>
+        <f si="1" t="shared"/>
         <v>10.61</v>
       </c>
     </row>
@@ -8630,20 +10299,20 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E79">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="greaterThan">
+    <cfRule dxfId="26" operator="greaterThan" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule dxfId="25" operator="equal" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup copies="0" horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{D7146347-276E-45E1-99C3-0065D877768D}">
+          <x14:cfRule id="{D7146347-276E-45E1-99C3-0065D877768D}" operator="containsText" priority="1" type="containsText">
             <xm:f>NOT(ISERROR(SEARCH("-",E1)))</xm:f>
             <xm:f>"-"</xm:f>
             <x14:dxf>

--- a/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
+++ b/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="213">
   <si>
     <t>Sales</t>
   </si>
@@ -651,6 +651,33 @@
   </si>
   <si>
     <t>206.60</t>
+  </si>
+  <si>
+    <t>1,026.03</t>
+  </si>
+  <si>
+    <t>1,110.79</t>
+  </si>
+  <si>
+    <t>84.76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>41.36</t>
+  </si>
+  <si>
+    <t>3.4300</t>
+  </si>
+  <si>
+    <t>46.79</t>
+  </si>
+  <si>
+    <t>84.39</t>
+  </si>
+  <si>
+    <t>3.00</t>
   </si>
 </sst>
 </file>
@@ -658,7 +685,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="250" x14ac:knownFonts="1">
+  <fonts count="269" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1312,82 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1711,7 +1814,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="116">
+  <borders count="124">
     <border>
       <left/>
       <right/>
@@ -2632,11 +2735,73 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="286">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
@@ -3419,13 +3584,70 @@
     <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="246" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="248" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="115" xfId="0" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="248" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="249" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4933,7 +5155,9 @@
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="1"/>
+      <c r="N22" s="267" t="s">
+        <v>204</v>
+      </c>
       <c r="O22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4971,7 +5195,9 @@
       <c r="M23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="1"/>
+      <c r="N23" s="268" t="s">
+        <v>205</v>
+      </c>
       <c r="O23" s="1" t="s">
         <v>40</v>
       </c>
@@ -5009,7 +5235,9 @@
       <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="1"/>
+      <c r="N24" s="269" t="s">
+        <v>206</v>
+      </c>
       <c r="O24" s="1" t="s">
         <v>41</v>
       </c>
@@ -5049,7 +5277,9 @@
       <c r="M25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="1"/>
+      <c r="N25" s="270" t="s">
+        <v>207</v>
+      </c>
       <c r="O25" s="1" t="s">
         <v>42</v>
       </c>
@@ -5091,7 +5321,9 @@
       <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="1"/>
+      <c r="N26" s="271" t="s">
+        <v>102</v>
+      </c>
       <c r="O26" s="1" t="s">
         <v>43</v>
       </c>
@@ -5840,7 +6072,9 @@
       <c r="C24" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" s="272" t="s">
+        <v>208</v>
+      </c>
       <c r="E24" s="167">
         <f si="0" t="shared"/>
         <v>54.59</v>
@@ -5854,7 +6088,9 @@
       <c r="C25" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" s="273" t="s">
+        <v>209</v>
+      </c>
       <c r="E25" s="167">
         <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
@@ -5868,7 +6104,9 @@
       <c r="C26" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="274" t="s">
+        <v>102</v>
+      </c>
       <c r="E26" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -5882,7 +6120,9 @@
       <c r="C27" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" s="275" t="s">
+        <v>210</v>
+      </c>
       <c r="E27" s="167">
         <f si="0" t="shared"/>
         <v>59.11</v>
@@ -5896,7 +6136,9 @@
       <c r="C28" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" s="276" t="s">
+        <v>208</v>
+      </c>
       <c r="E28" s="167">
         <f si="0" t="shared"/>
         <v>54.59</v>
@@ -5910,7 +6152,9 @@
       <c r="C29" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="277" t="s">
+        <v>209</v>
+      </c>
       <c r="E29" s="167">
         <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
@@ -5924,7 +6168,9 @@
       <c r="C30" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="278" t="s">
+        <v>102</v>
+      </c>
       <c r="E30" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -5938,7 +6184,9 @@
       <c r="C31" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="279" t="s">
+        <v>210</v>
+      </c>
       <c r="E31" s="167">
         <f si="0" t="shared"/>
         <v>59.11</v>
@@ -5950,7 +6198,9 @@
         <v>87</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="280" t="s">
+        <v>211</v>
+      </c>
       <c r="E32" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -5962,7 +6212,9 @@
         <v>88</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="281" t="s">
+        <v>102</v>
+      </c>
       <c r="E33" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -5976,7 +6228,9 @@
       <c r="C34" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="282" t="s">
+        <v>102</v>
+      </c>
       <c r="E34" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -5990,7 +6244,9 @@
       <c r="C35" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="283" t="s">
+        <v>102</v>
+      </c>
       <c r="E35" s="167">
         <f si="0" t="shared"/>
         <v>0</v>
@@ -6004,7 +6260,9 @@
       <c r="C36" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="284" t="s">
+        <v>205</v>
+      </c>
       <c r="E36" s="167">
         <f si="0" t="shared"/>
         <v>59.11</v>
@@ -6018,7 +6276,9 @@
       <c r="C37" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="285" t="s">
+        <v>212</v>
+      </c>
       <c r="E37" s="167">
         <f si="0" t="shared"/>
         <v>0</v>

--- a/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
+++ b/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sappanimuthu.balasub\Documents\LIN_BO_Revamp\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Automation\Linga_BO_Revamp\Sale Report Excel Comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B2333C34-CDD0-4860-B9E4-0C796497F9A7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{BD5E8695-0025-4C54-84A7-AB9D869D9CB6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="10560" windowWidth="19420" xWindow="-110" xr2:uid="{AA5FD2E5-D388-4DEF-A183-91A785FA9E28}" yWindow="-110"/>
+    <workbookView windowHeight="10420" windowWidth="19420" xWindow="-110" xr2:uid="{AA5FD2E5-D388-4DEF-A183-91A785FA9E28}" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Both_BO_Value" r:id="rId1" sheetId="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="232">
   <si>
     <t>Sales</t>
   </si>
@@ -584,66 +584,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>19,768.02</t>
-  </si>
-  <si>
-    <t>$0.00</t>
-  </si>
-  <si>
-    <t>12.38</t>
-  </si>
-  <si>
-    <t>1,630.64</t>
-  </si>
-  <si>
-    <t>1597</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>135.68</t>
-  </si>
-  <si>
-    <t>87.78%</t>
-  </si>
-  <si>
-    <t>21,401.66</t>
-  </si>
-  <si>
-    <t>21,513.66</t>
-  </si>
-  <si>
-    <t>1,182.09</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>2.44%</t>
-  </si>
-  <si>
-    <t>21,592.72</t>
-  </si>
-  <si>
-    <t>0.63%</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2.69%</t>
-  </si>
-  <si>
-    <t>10,859.60</t>
-  </si>
-  <si>
     <t>2,504.85</t>
   </si>
   <si>
@@ -653,6 +593,129 @@
     <t>206.60</t>
   </si>
   <si>
+    <t>16,438.80</t>
+  </si>
+  <si>
+    <t>18,074.13</t>
+  </si>
+  <si>
+    <t>1,117.99</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>531.32</t>
+  </si>
+  <si>
+    <t>675.01</t>
+  </si>
+  <si>
+    <t>50.7400</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>725.75</t>
+  </si>
+  <si>
+    <t>1,119.34</t>
+  </si>
+  <si>
+    <t>148.83</t>
+  </si>
+  <si>
+    <t>17,691.52</t>
+  </si>
+  <si>
+    <t>1,127.53</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>12.65</t>
+  </si>
+  <si>
+    <t>416</t>
+  </si>
+  <si>
+    <t>9.62%</t>
+  </si>
+  <si>
+    <t>2.94%</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>93,740.56</t>
+  </si>
+  <si>
+    <t>24.48</t>
+  </si>
+  <si>
+    <t>6,112.11</t>
+  </si>
+  <si>
+    <t>3829</t>
+  </si>
+  <si>
+    <t>3897</t>
+  </si>
+  <si>
+    <t>5,646.63</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>24.57%</t>
+  </si>
+  <si>
+    <t>99,820.95</t>
+  </si>
+  <si>
+    <t>6,111.98</t>
+  </si>
+  <si>
+    <t>1,292.74</t>
+  </si>
+  <si>
+    <t>101,573.69</t>
+  </si>
+  <si>
+    <t>6,678.50</t>
+  </si>
+  <si>
+    <t>5,639.25</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>19.05</t>
+  </si>
+  <si>
+    <t>7.60%</t>
+  </si>
+  <si>
+    <t>106,227.05</t>
+  </si>
+  <si>
+    <t>5.31%</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>23,030.21</t>
+  </si>
+  <si>
+    <t>Visit Conversion Rate</t>
+  </si>
+  <si>
     <t>1,026.03</t>
   </si>
   <si>
@@ -665,13 +728,7 @@
     <t>77</t>
   </si>
   <si>
-    <t>41.36</t>
-  </si>
-  <si>
-    <t>3.4300</t>
-  </si>
-  <si>
-    <t>46.79</t>
+    <t>1,113.79</t>
   </si>
   <si>
     <t>84.39</t>
@@ -685,7 +742,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="269" x14ac:knownFonts="1">
+  <fonts count="234" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -704,994 +761,1067 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="9.0"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1814,7 +1944,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="124">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1868,52 +1998,19 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
+      <right style="thin">
         <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1928,54 +2025,7 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1990,750 +2040,7 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin"/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thin"/>
@@ -2801,7 +2108,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="250">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
@@ -3278,383 +2585,299 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="155" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="156" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="157" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="159" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="161" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="163" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="165" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="166" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="168" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="170" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="171" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="172" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="176" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="181" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="186" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="187" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="193" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="198" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="200" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="201" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="202" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="203" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="204" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="206" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="208" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="210" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="211" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="213" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="155" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="156" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="157" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="158" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="159" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="160" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="161" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="162" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="163" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="164" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="165" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="166" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="167" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="168" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="169" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="170" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="171" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="172" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="173" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="174" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="175" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="176" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="177" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="178" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="179" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="180" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="181" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="182" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="11" fillId="0" fontId="183" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="184" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="185" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="186" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="187" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="188" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="189" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="190" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="191" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="192" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="193" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="194" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="195" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="196" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="197" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="198" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="199" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="200" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="201" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="202" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="203" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="204" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="205" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="206" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="207" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="208" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="209" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="210" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="211" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="212" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="19" fillId="0" fontId="213" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="214" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="215" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="27" fillId="0" fontId="216" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="217" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="218" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="35" fillId="0" fontId="219" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="220" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="221" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="43" fillId="0" fontId="222" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="223" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="224" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="51" fillId="0" fontId="225" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="226" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="227" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="59" fillId="0" fontId="228" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="229" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="230" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="67" fillId="0" fontId="231" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="232" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="233" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="75" fillId="0" fontId="234" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="235" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="236" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="83" fillId="0" fontId="237" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="238" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="239" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="91" fillId="0" fontId="240" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="241" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="242" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="99" fillId="0" fontId="243" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="244" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="245" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="107" fillId="0" fontId="246" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="247" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="248" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyBorder="true" applyFont="true" borderId="115" fillId="0" fontId="249" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="251" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="256" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="261" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="262" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="266" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="268" fillId="0" borderId="123" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3824,30 +3047,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -3868,122 +3067,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4299,8 +3382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8461D5C9-C633-44D2-A2F6-895739E4A308}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4316,58 +3399,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163" t="s">
+      <c r="D2" s="228"/>
+      <c r="E2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163" t="s">
+      <c r="F2" s="228"/>
+      <c r="G2" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163" t="s">
+      <c r="H2" s="228"/>
+      <c r="I2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163" t="s">
+      <c r="J2" s="228"/>
+      <c r="K2" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163" t="s">
+      <c r="L2" s="228"/>
+      <c r="M2" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163" t="s">
+      <c r="N2" s="228"/>
+      <c r="O2" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="163"/>
+      <c r="P2" s="228"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -5020,58 +4103,58 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="229" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="229"/>
+      <c r="D19" s="229"/>
+      <c r="E19" s="229"/>
+      <c r="F19" s="229"/>
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="229"/>
+      <c r="M19" s="229"/>
+      <c r="N19" s="229"/>
+      <c r="O19" s="229"/>
+      <c r="P19" s="229"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="163" t="s">
+      <c r="A20" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="163" t="s">
+      <c r="B20" s="228"/>
+      <c r="C20" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163" t="s">
+      <c r="D20" s="228"/>
+      <c r="E20" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="163"/>
-      <c r="G20" s="163" t="s">
+      <c r="F20" s="228"/>
+      <c r="G20" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="163"/>
-      <c r="I20" s="163" t="s">
+      <c r="H20" s="228"/>
+      <c r="I20" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163" t="s">
+      <c r="J20" s="228"/>
+      <c r="K20" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163" t="s">
+      <c r="L20" s="228"/>
+      <c r="M20" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163" t="s">
+      <c r="N20" s="228"/>
+      <c r="O20" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="163"/>
+      <c r="P20" s="228"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -5127,8 +4210,8 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="201" t="s">
-        <v>181</v>
+      <c r="B22" s="198" t="s">
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
@@ -5155,8 +4238,8 @@
       <c r="M22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="267" t="s">
-        <v>204</v>
+      <c r="N22" s="231" t="s">
+        <v>225</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>39</v>
@@ -5167,8 +4250,8 @@
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="202" t="s">
-        <v>182</v>
+      <c r="B23" s="199" t="s">
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
@@ -5195,8 +4278,8 @@
       <c r="M23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="268" t="s">
-        <v>205</v>
+      <c r="N23" s="232" t="s">
+        <v>226</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>40</v>
@@ -5207,8 +4290,8 @@
       <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="203" t="s">
-        <v>183</v>
+      <c r="B24" s="200" t="s">
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>180</v>
@@ -5235,8 +4318,8 @@
       <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="269" t="s">
-        <v>206</v>
+      <c r="N24" s="233" t="s">
+        <v>227</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>41</v>
@@ -5247,8 +4330,8 @@
       <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="204" t="s">
-        <v>183</v>
+      <c r="B25" s="201" t="s">
+        <v>204</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>180</v>
@@ -5277,8 +4360,8 @@
       <c r="M25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="270" t="s">
-        <v>207</v>
+      <c r="N25" s="234" t="s">
+        <v>228</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>42</v>
@@ -5289,8 +4372,8 @@
       <c r="A26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="205" t="s">
-        <v>184</v>
+      <c r="B26" s="202" t="s">
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>180</v>
@@ -5303,7 +4386,7 @@
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
@@ -5321,7 +4404,7 @@
       <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="271" t="s">
+      <c r="N26" s="235" t="s">
         <v>102</v>
       </c>
       <c r="O26" s="1" t="s">
@@ -5333,8 +4416,8 @@
       <c r="A27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="206" t="s">
-        <v>185</v>
+      <c r="B27" s="203" t="s">
+        <v>206</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>180</v>
@@ -5381,8 +4464,8 @@
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="207" t="s">
-        <v>186</v>
+      <c r="B28" s="204" t="s">
+        <v>207</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>180</v>
@@ -5429,8 +4512,8 @@
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="208" t="s">
-        <v>187</v>
+      <c r="B29" s="205" t="s">
+        <v>208</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>180</v>
@@ -5477,8 +4560,8 @@
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="209" t="s">
-        <v>182</v>
+      <c r="B30" s="206" t="s">
+        <v>102</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>180</v>
@@ -5525,8 +4608,8 @@
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="210" t="s">
-        <v>199</v>
+      <c r="B31" s="207" t="s">
+        <v>209</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>180</v>
@@ -5573,8 +4656,8 @@
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="211" t="s">
-        <v>188</v>
+      <c r="B32" s="208" t="s">
+        <v>210</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>180</v>
@@ -5669,6 +4752,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -5678,15 +4770,6 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5694,7 +4777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AD18B4-AA5C-4DAC-B720-8E364BC00296}">
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -5722,7 +4805,7 @@
       <c r="D1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="166" t="s">
+      <c r="E1" s="162" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5732,10 +4815,10 @@
         <v>56</v>
       </c>
       <c r="C2" s="19"/>
-      <c r="D2" s="212" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="167">
+      <c r="D2" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="163">
         <f ref="E2:E45" si="0" t="shared">C2-D2</f>
         <v>0</v>
       </c>
@@ -5748,10 +4831,10 @@
       <c r="C3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="213" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="167">
+      <c r="D3" s="210" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="163">
         <f>C3-D3</f>
         <v>122.36</v>
       </c>
@@ -5764,10 +4847,10 @@
       <c r="C4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="214" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="167">
+      <c r="D4" s="211" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
@@ -5780,10 +4863,10 @@
       <c r="C5" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="215" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="167">
+      <c r="D5" s="212" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
@@ -5796,10 +4879,10 @@
       <c r="C6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="216" t="s">
-        <v>184</v>
-      </c>
-      <c r="E6" s="167">
+      <c r="D6" s="213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
@@ -5812,10 +4895,10 @@
       <c r="C7" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="217" t="s">
+      <c r="D7" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="167">
+      <c r="E7" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -5828,10 +4911,10 @@
       <c r="C8" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="218" t="s">
+      <c r="D8" s="215" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="167">
+      <c r="E8" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -5844,10 +4927,10 @@
       <c r="C9" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="219" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="167">
+      <c r="D9" s="216" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -5860,10 +4943,10 @@
       <c r="C10" s="27" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="220" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="167">
+      <c r="D10" s="217" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
@@ -5876,10 +4959,10 @@
       <c r="C11" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="221" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="167">
+      <c r="D11" s="218" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="163">
         <f si="0" t="shared"/>
         <v>87</v>
       </c>
@@ -5892,10 +4975,10 @@
       <c r="C12" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="222" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="167">
+      <c r="D12" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
@@ -5908,10 +4991,10 @@
       <c r="C13" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="223" t="s">
-        <v>192</v>
-      </c>
-      <c r="E13" s="167">
+      <c r="D13" s="220" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="163">
         <f si="0" t="shared"/>
         <v>4</v>
       </c>
@@ -5924,10 +5007,10 @@
       <c r="C14" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="224" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="167">
+      <c r="D14" s="221" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="163">
         <f si="0" t="shared"/>
         <v>2.4300000000000002</v>
       </c>
@@ -5940,10 +5023,10 @@
       <c r="C15" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="225" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="167">
+      <c r="D15" s="222" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="163">
         <f si="0" t="shared"/>
         <v>124</v>
       </c>
@@ -5956,10 +5039,10 @@
       <c r="C16" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D16" s="226" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" s="167">
+      <c r="D16" s="223" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="163">
         <f si="0" t="shared"/>
         <v>3.2300000000000002E-2</v>
       </c>
@@ -5972,10 +5055,10 @@
       <c r="C17" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="227" t="s">
-        <v>195</v>
-      </c>
-      <c r="E17" s="167">
+      <c r="D17" s="224" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="163">
         <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
@@ -5988,10 +5071,10 @@
       <c r="C18" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="228" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="167">
+      <c r="D18" s="225" t="s">
+        <v>221</v>
+      </c>
+      <c r="E18" s="163">
         <f si="0" t="shared"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -6004,10 +5087,10 @@
       <c r="C19" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="229" t="s">
-        <v>197</v>
-      </c>
-      <c r="E19" s="167">
+      <c r="D19" s="226" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="163">
         <f si="0" t="shared"/>
         <v>4</v>
       </c>
@@ -6019,7 +5102,7 @@
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="167">
+      <c r="E20" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6032,10 +5115,10 @@
       <c r="C21" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="230" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="167">
+      <c r="D21" s="227" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="163">
         <f si="0" t="shared"/>
         <v>24.97</v>
       </c>
@@ -6047,7 +5130,7 @@
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="167">
+      <c r="E22" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6059,7 +5142,7 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="167">
+      <c r="E23" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6072,10 +5155,10 @@
       <c r="C24" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="272" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="167">
+      <c r="D24" s="236" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="163">
         <f si="0" t="shared"/>
         <v>54.59</v>
       </c>
@@ -6088,10 +5171,10 @@
       <c r="C25" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="273" t="s">
-        <v>209</v>
-      </c>
-      <c r="E25" s="167">
+      <c r="D25" s="237" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="163">
         <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
       </c>
@@ -6104,10 +5187,10 @@
       <c r="C26" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="274" t="s">
+      <c r="D26" s="238" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="167">
+      <c r="E26" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6120,10 +5203,10 @@
       <c r="C27" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="275" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="167">
+      <c r="D27" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="E27" s="163">
         <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
@@ -6136,10 +5219,10 @@
       <c r="C28" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="276" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="167">
+      <c r="D28" s="240" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="163">
         <f si="0" t="shared"/>
         <v>54.59</v>
       </c>
@@ -6152,10 +5235,10 @@
       <c r="C29" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="277" t="s">
-        <v>209</v>
-      </c>
-      <c r="E29" s="167">
+      <c r="D29" s="241" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="163">
         <f si="0" t="shared"/>
         <v>4.5199999999999996</v>
       </c>
@@ -6168,10 +5251,10 @@
       <c r="C30" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D30" s="278" t="s">
+      <c r="D30" s="242" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="167">
+      <c r="E30" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6184,10 +5267,10 @@
       <c r="C31" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="279" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" s="167">
+      <c r="D31" s="243" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="163">
         <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
@@ -6198,10 +5281,10 @@
         <v>87</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="280" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="167">
+      <c r="D32" s="244" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6212,10 +5295,10 @@
         <v>88</v>
       </c>
       <c r="C33" s="6"/>
-      <c r="D33" s="281" t="s">
+      <c r="D33" s="245" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="167">
+      <c r="E33" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6228,10 +5311,10 @@
       <c r="C34" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="282" t="s">
+      <c r="D34" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="167">
+      <c r="E34" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6244,10 +5327,10 @@
       <c r="C35" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="283" t="s">
+      <c r="D35" s="247" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="167">
+      <c r="E35" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6260,10 +5343,10 @@
       <c r="C36" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="284" t="s">
-        <v>205</v>
-      </c>
-      <c r="E36" s="167">
+      <c r="D36" s="248" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="163">
         <f si="0" t="shared"/>
         <v>59.11</v>
       </c>
@@ -6276,10 +5359,10 @@
       <c r="C37" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="285" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="167">
+      <c r="D37" s="249" t="s">
+        <v>231</v>
+      </c>
+      <c r="E37" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6290,8 +5373,10 @@
         <v>93</v>
       </c>
       <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="167">
+      <c r="D38" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6302,8 +5387,10 @@
         <v>94</v>
       </c>
       <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="167">
+      <c r="D39" s="191" t="s">
+        <v>197</v>
+      </c>
+      <c r="E39" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6314,8 +5401,10 @@
         <v>100</v>
       </c>
       <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="167">
+      <c r="D40" s="192" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6326,8 +5415,10 @@
         <v>95</v>
       </c>
       <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="167">
+      <c r="D41" s="193" t="s">
+        <v>199</v>
+      </c>
+      <c r="E41" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6338,8 +5429,10 @@
         <v>99</v>
       </c>
       <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="167">
+      <c r="D42" s="194" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6350,8 +5443,10 @@
         <v>96</v>
       </c>
       <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="167">
+      <c r="D43" s="195" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6362,8 +5457,10 @@
         <v>98</v>
       </c>
       <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="167">
+      <c r="D44" s="196" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
@@ -6374,2124 +5471,20 @@
         <v>97</v>
       </c>
       <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="167">
+      <c r="D45" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="165"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="165"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="165"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="165"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="165"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="165"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="165"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="165"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="165"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="165"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="165"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="165"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="165"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="165"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="165"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="165"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="165"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="165"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="165"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A65" s="165"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="165"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="165"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="165"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="165"/>
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="165"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="165"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="165"/>
-      <c r="B72" s="165"/>
-      <c r="C72" s="165"/>
-      <c r="D72" s="165"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="165"/>
-      <c r="B73" s="165"/>
-      <c r="C73" s="165"/>
-      <c r="D73" s="165"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="165"/>
-      <c r="B74" s="165"/>
-      <c r="C74" s="165"/>
-      <c r="D74" s="165"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="165"/>
-      <c r="B75" s="165"/>
-      <c r="C75" s="165"/>
-      <c r="D75" s="165"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="165"/>
-      <c r="B76" s="165"/>
-      <c r="C76" s="165"/>
-      <c r="D76" s="165"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="165"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="165"/>
-      <c r="B78" s="165"/>
-      <c r="C78" s="165"/>
-      <c r="D78" s="165"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="165"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="165"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="165"/>
-      <c r="B81" s="165"/>
-      <c r="C81" s="165"/>
-      <c r="D81" s="165"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="165"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="165"/>
-      <c r="B83" s="165"/>
-      <c r="C83" s="165"/>
-      <c r="D83" s="165"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="165"/>
-      <c r="B84" s="165"/>
-      <c r="C84" s="165"/>
-      <c r="D84" s="165"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="165"/>
-      <c r="B85" s="165"/>
-      <c r="C85" s="165"/>
-      <c r="D85" s="165"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="165"/>
-      <c r="B86" s="165"/>
-      <c r="C86" s="165"/>
-      <c r="D86" s="165"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="165"/>
-      <c r="B87" s="165"/>
-      <c r="C87" s="165"/>
-      <c r="D87" s="165"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="165"/>
-      <c r="B88" s="165"/>
-      <c r="C88" s="165"/>
-      <c r="D88" s="165"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="165"/>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="165"/>
-      <c r="B90" s="165"/>
-      <c r="C90" s="165"/>
-      <c r="D90" s="165"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="165"/>
-      <c r="B91" s="165"/>
-      <c r="C91" s="165"/>
-      <c r="D91" s="165"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="165"/>
-      <c r="B92" s="165"/>
-      <c r="C92" s="165"/>
-      <c r="D92" s="165"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="165"/>
-      <c r="B93" s="165"/>
-      <c r="C93" s="165"/>
-      <c r="D93" s="165"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="165"/>
-      <c r="B94" s="165"/>
-      <c r="C94" s="165"/>
-      <c r="D94" s="165"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="165"/>
-      <c r="B95" s="165"/>
-      <c r="C95" s="165"/>
-      <c r="D95" s="165"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="165"/>
-      <c r="B96" s="165"/>
-      <c r="C96" s="165"/>
-      <c r="D96" s="165"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="165"/>
-      <c r="B97" s="165"/>
-      <c r="C97" s="165"/>
-      <c r="D97" s="165"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="165"/>
-      <c r="B98" s="165"/>
-      <c r="C98" s="165"/>
-      <c r="D98" s="165"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="165"/>
-      <c r="B99" s="165"/>
-      <c r="C99" s="165"/>
-      <c r="D99" s="165"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="165"/>
-      <c r="B100" s="165"/>
-      <c r="C100" s="165"/>
-      <c r="D100" s="165"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="165"/>
-      <c r="B101" s="165"/>
-      <c r="C101" s="165"/>
-      <c r="D101" s="165"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="165"/>
-      <c r="B102" s="165"/>
-      <c r="C102" s="165"/>
-      <c r="D102" s="165"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="165"/>
-      <c r="B103" s="165"/>
-      <c r="C103" s="165"/>
-      <c r="D103" s="165"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="165"/>
-      <c r="B104" s="165"/>
-      <c r="C104" s="165"/>
-      <c r="D104" s="165"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="165"/>
-      <c r="B105" s="165"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="165"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="165"/>
-      <c r="B106" s="165"/>
-      <c r="C106" s="165"/>
-      <c r="D106" s="165"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="165"/>
-      <c r="B107" s="165"/>
-      <c r="C107" s="165"/>
-      <c r="D107" s="165"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="165"/>
-      <c r="B108" s="165"/>
-      <c r="C108" s="165"/>
-      <c r="D108" s="165"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="165"/>
-      <c r="B109" s="165"/>
-      <c r="C109" s="165"/>
-      <c r="D109" s="165"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="165"/>
-      <c r="B110" s="165"/>
-      <c r="C110" s="165"/>
-      <c r="D110" s="165"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="165"/>
-      <c r="B111" s="165"/>
-      <c r="C111" s="165"/>
-      <c r="D111" s="165"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="165"/>
-      <c r="B112" s="165"/>
-      <c r="C112" s="165"/>
-      <c r="D112" s="165"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="165"/>
-      <c r="B113" s="165"/>
-      <c r="C113" s="165"/>
-      <c r="D113" s="165"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="165"/>
-      <c r="B114" s="165"/>
-      <c r="C114" s="165"/>
-      <c r="D114" s="165"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="165"/>
-      <c r="B115" s="165"/>
-      <c r="C115" s="165"/>
-      <c r="D115" s="165"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="165"/>
-      <c r="B116" s="165"/>
-      <c r="C116" s="165"/>
-      <c r="D116" s="165"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="165"/>
-      <c r="B117" s="165"/>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="165"/>
-      <c r="B118" s="165"/>
-      <c r="C118" s="165"/>
-      <c r="D118" s="165"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="165"/>
-      <c r="B119" s="165"/>
-      <c r="C119" s="165"/>
-      <c r="D119" s="165"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="165"/>
-      <c r="B120" s="165"/>
-      <c r="C120" s="165"/>
-      <c r="D120" s="165"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="165"/>
-      <c r="B121" s="165"/>
-      <c r="C121" s="165"/>
-      <c r="D121" s="165"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="165"/>
-      <c r="B122" s="165"/>
-      <c r="C122" s="165"/>
-      <c r="D122" s="165"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="165"/>
-      <c r="B123" s="165"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="165"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="165"/>
-      <c r="B124" s="165"/>
-      <c r="C124" s="165"/>
-      <c r="D124" s="165"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="165"/>
-      <c r="B125" s="165"/>
-      <c r="C125" s="165"/>
-      <c r="D125" s="165"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="165"/>
-      <c r="B126" s="165"/>
-      <c r="C126" s="165"/>
-      <c r="D126" s="165"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127" s="165"/>
-      <c r="B127" s="165"/>
-      <c r="C127" s="165"/>
-      <c r="D127" s="165"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128" s="165"/>
-      <c r="B128" s="165"/>
-      <c r="C128" s="165"/>
-      <c r="D128" s="165"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A129" s="165"/>
-      <c r="B129" s="165"/>
-      <c r="C129" s="165"/>
-      <c r="D129" s="165"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="165"/>
-      <c r="B130" s="165"/>
-      <c r="C130" s="165"/>
-      <c r="D130" s="165"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="165"/>
-      <c r="B131" s="165"/>
-      <c r="C131" s="165"/>
-      <c r="D131" s="165"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="165"/>
-      <c r="B132" s="165"/>
-      <c r="C132" s="165"/>
-      <c r="D132" s="165"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="165"/>
-      <c r="B133" s="165"/>
-      <c r="C133" s="165"/>
-      <c r="D133" s="165"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="165"/>
-      <c r="B134" s="165"/>
-      <c r="C134" s="165"/>
-      <c r="D134" s="165"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="165"/>
-      <c r="B135" s="165"/>
-      <c r="C135" s="165"/>
-      <c r="D135" s="165"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136" s="165"/>
-      <c r="B136" s="165"/>
-      <c r="C136" s="165"/>
-      <c r="D136" s="165"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="165"/>
-      <c r="B137" s="165"/>
-      <c r="C137" s="165"/>
-      <c r="D137" s="165"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="165"/>
-      <c r="B138" s="165"/>
-      <c r="C138" s="165"/>
-      <c r="D138" s="165"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="165"/>
-      <c r="B139" s="165"/>
-      <c r="C139" s="165"/>
-      <c r="D139" s="165"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="165"/>
-      <c r="B140" s="165"/>
-      <c r="C140" s="165"/>
-      <c r="D140" s="165"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="165"/>
-      <c r="B141" s="165"/>
-      <c r="C141" s="165"/>
-      <c r="D141" s="165"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="165"/>
-      <c r="B142" s="165"/>
-      <c r="C142" s="165"/>
-      <c r="D142" s="165"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A143" s="165"/>
-      <c r="B143" s="165"/>
-      <c r="C143" s="165"/>
-      <c r="D143" s="165"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="165"/>
-      <c r="B144" s="165"/>
-      <c r="C144" s="165"/>
-      <c r="D144" s="165"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A145" s="165"/>
-      <c r="B145" s="165"/>
-      <c r="C145" s="165"/>
-      <c r="D145" s="165"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A146" s="165"/>
-      <c r="B146" s="165"/>
-      <c r="C146" s="165"/>
-      <c r="D146" s="165"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A147" s="165"/>
-      <c r="B147" s="165"/>
-      <c r="C147" s="165"/>
-      <c r="D147" s="165"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A148" s="165"/>
-      <c r="B148" s="165"/>
-      <c r="C148" s="165"/>
-      <c r="D148" s="165"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A149" s="165"/>
-      <c r="B149" s="165"/>
-      <c r="C149" s="165"/>
-      <c r="D149" s="165"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A150" s="165"/>
-      <c r="B150" s="165"/>
-      <c r="C150" s="165"/>
-      <c r="D150" s="165"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A151" s="165"/>
-      <c r="B151" s="165"/>
-      <c r="C151" s="165"/>
-      <c r="D151" s="165"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A152" s="165"/>
-      <c r="B152" s="165"/>
-      <c r="C152" s="165"/>
-      <c r="D152" s="165"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A153" s="165"/>
-      <c r="B153" s="165"/>
-      <c r="C153" s="165"/>
-      <c r="D153" s="165"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A154" s="165"/>
-      <c r="B154" s="165"/>
-      <c r="C154" s="165"/>
-      <c r="D154" s="165"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A155" s="165"/>
-      <c r="B155" s="165"/>
-      <c r="C155" s="165"/>
-      <c r="D155" s="165"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A156" s="165"/>
-      <c r="B156" s="165"/>
-      <c r="C156" s="165"/>
-      <c r="D156" s="165"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A157" s="165"/>
-      <c r="B157" s="165"/>
-      <c r="C157" s="165"/>
-      <c r="D157" s="165"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A158" s="165"/>
-      <c r="B158" s="165"/>
-      <c r="C158" s="165"/>
-      <c r="D158" s="165"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A159" s="165"/>
-      <c r="B159" s="165"/>
-      <c r="C159" s="165"/>
-      <c r="D159" s="165"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A160" s="165"/>
-      <c r="B160" s="165"/>
-      <c r="C160" s="165"/>
-      <c r="D160" s="165"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" s="165"/>
-      <c r="B161" s="165"/>
-      <c r="C161" s="165"/>
-      <c r="D161" s="165"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" s="165"/>
-      <c r="B162" s="165"/>
-      <c r="C162" s="165"/>
-      <c r="D162" s="165"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" s="165"/>
-      <c r="B163" s="165"/>
-      <c r="C163" s="165"/>
-      <c r="D163" s="165"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" s="165"/>
-      <c r="B164" s="165"/>
-      <c r="C164" s="165"/>
-      <c r="D164" s="165"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" s="165"/>
-      <c r="B165" s="165"/>
-      <c r="C165" s="165"/>
-      <c r="D165" s="165"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A166" s="165"/>
-      <c r="B166" s="165"/>
-      <c r="C166" s="165"/>
-      <c r="D166" s="165"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A167" s="165"/>
-      <c r="B167" s="165"/>
-      <c r="C167" s="165"/>
-      <c r="D167" s="165"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A168" s="165"/>
-      <c r="B168" s="165"/>
-      <c r="C168" s="165"/>
-      <c r="D168" s="165"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A169" s="165"/>
-      <c r="B169" s="165"/>
-      <c r="C169" s="165"/>
-      <c r="D169" s="165"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A170" s="165"/>
-      <c r="B170" s="165"/>
-      <c r="C170" s="165"/>
-      <c r="D170" s="165"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A171" s="165"/>
-      <c r="B171" s="165"/>
-      <c r="C171" s="165"/>
-      <c r="D171" s="165"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A172" s="165"/>
-      <c r="B172" s="165"/>
-      <c r="C172" s="165"/>
-      <c r="D172" s="165"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A173" s="165"/>
-      <c r="B173" s="165"/>
-      <c r="C173" s="165"/>
-      <c r="D173" s="165"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A174" s="165"/>
-      <c r="B174" s="165"/>
-      <c r="C174" s="165"/>
-      <c r="D174" s="165"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A175" s="165"/>
-      <c r="B175" s="165"/>
-      <c r="C175" s="165"/>
-      <c r="D175" s="165"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A176" s="165"/>
-      <c r="B176" s="165"/>
-      <c r="C176" s="165"/>
-      <c r="D176" s="165"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A177" s="165"/>
-      <c r="B177" s="165"/>
-      <c r="C177" s="165"/>
-      <c r="D177" s="165"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A178" s="165"/>
-      <c r="B178" s="165"/>
-      <c r="C178" s="165"/>
-      <c r="D178" s="165"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A179" s="165"/>
-      <c r="B179" s="165"/>
-      <c r="C179" s="165"/>
-      <c r="D179" s="165"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A180" s="165"/>
-      <c r="B180" s="165"/>
-      <c r="C180" s="165"/>
-      <c r="D180" s="165"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A181" s="165"/>
-      <c r="B181" s="165"/>
-      <c r="C181" s="165"/>
-      <c r="D181" s="165"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A182" s="165"/>
-      <c r="B182" s="165"/>
-      <c r="C182" s="165"/>
-      <c r="D182" s="165"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A183" s="165"/>
-      <c r="B183" s="165"/>
-      <c r="C183" s="165"/>
-      <c r="D183" s="165"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A184" s="165"/>
-      <c r="B184" s="165"/>
-      <c r="C184" s="165"/>
-      <c r="D184" s="165"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A185" s="165"/>
-      <c r="B185" s="165"/>
-      <c r="C185" s="165"/>
-      <c r="D185" s="165"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A186" s="165"/>
-      <c r="B186" s="165"/>
-      <c r="C186" s="165"/>
-      <c r="D186" s="165"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A187" s="165"/>
-      <c r="B187" s="165"/>
-      <c r="C187" s="165"/>
-      <c r="D187" s="165"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A188" s="165"/>
-      <c r="B188" s="165"/>
-      <c r="C188" s="165"/>
-      <c r="D188" s="165"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A189" s="165"/>
-      <c r="B189" s="165"/>
-      <c r="C189" s="165"/>
-      <c r="D189" s="165"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A190" s="165"/>
-      <c r="B190" s="165"/>
-      <c r="C190" s="165"/>
-      <c r="D190" s="165"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A191" s="165"/>
-      <c r="B191" s="165"/>
-      <c r="C191" s="165"/>
-      <c r="D191" s="165"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A192" s="165"/>
-      <c r="B192" s="165"/>
-      <c r="C192" s="165"/>
-      <c r="D192" s="165"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A193" s="165"/>
-      <c r="B193" s="165"/>
-      <c r="C193" s="165"/>
-      <c r="D193" s="165"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A194" s="165"/>
-      <c r="B194" s="165"/>
-      <c r="C194" s="165"/>
-      <c r="D194" s="165"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A195" s="165"/>
-      <c r="B195" s="165"/>
-      <c r="C195" s="165"/>
-      <c r="D195" s="165"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A196" s="165"/>
-      <c r="B196" s="165"/>
-      <c r="C196" s="165"/>
-      <c r="D196" s="165"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A197" s="165"/>
-      <c r="B197" s="165"/>
-      <c r="C197" s="165"/>
-      <c r="D197" s="165"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A198" s="165"/>
-      <c r="B198" s="165"/>
-      <c r="C198" s="165"/>
-      <c r="D198" s="165"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A199" s="165"/>
-      <c r="B199" s="165"/>
-      <c r="C199" s="165"/>
-      <c r="D199" s="165"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A200" s="165"/>
-      <c r="B200" s="165"/>
-      <c r="C200" s="165"/>
-      <c r="D200" s="165"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="165"/>
-      <c r="B201" s="165"/>
-      <c r="C201" s="165"/>
-      <c r="D201" s="165"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A202" s="165"/>
-      <c r="B202" s="165"/>
-      <c r="C202" s="165"/>
-      <c r="D202" s="165"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A203" s="165"/>
-      <c r="B203" s="165"/>
-      <c r="C203" s="165"/>
-      <c r="D203" s="165"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A204" s="165"/>
-      <c r="B204" s="165"/>
-      <c r="C204" s="165"/>
-      <c r="D204" s="165"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A205" s="165"/>
-      <c r="B205" s="165"/>
-      <c r="C205" s="165"/>
-      <c r="D205" s="165"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A206" s="165"/>
-      <c r="B206" s="165"/>
-      <c r="C206" s="165"/>
-      <c r="D206" s="165"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A207" s="165"/>
-      <c r="B207" s="165"/>
-      <c r="C207" s="165"/>
-      <c r="D207" s="165"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A208" s="165"/>
-      <c r="B208" s="165"/>
-      <c r="C208" s="165"/>
-      <c r="D208" s="165"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A209" s="165"/>
-      <c r="B209" s="165"/>
-      <c r="C209" s="165"/>
-      <c r="D209" s="165"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A210" s="165"/>
-      <c r="B210" s="165"/>
-      <c r="C210" s="165"/>
-      <c r="D210" s="165"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A211" s="165"/>
-      <c r="B211" s="165"/>
-      <c r="C211" s="165"/>
-      <c r="D211" s="165"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A212" s="165"/>
-      <c r="B212" s="165"/>
-      <c r="C212" s="165"/>
-      <c r="D212" s="165"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A213" s="165"/>
-      <c r="B213" s="165"/>
-      <c r="C213" s="165"/>
-      <c r="D213" s="165"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A214" s="165"/>
-      <c r="B214" s="165"/>
-      <c r="C214" s="165"/>
-      <c r="D214" s="165"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A215" s="165"/>
-      <c r="B215" s="165"/>
-      <c r="C215" s="165"/>
-      <c r="D215" s="165"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A216" s="165"/>
-      <c r="B216" s="165"/>
-      <c r="C216" s="165"/>
-      <c r="D216" s="165"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A217" s="165"/>
-      <c r="B217" s="165"/>
-      <c r="C217" s="165"/>
-      <c r="D217" s="165"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A218" s="165"/>
-      <c r="B218" s="165"/>
-      <c r="C218" s="165"/>
-      <c r="D218" s="165"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A219" s="165"/>
-      <c r="B219" s="165"/>
-      <c r="C219" s="165"/>
-      <c r="D219" s="165"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A220" s="165"/>
-      <c r="B220" s="165"/>
-      <c r="C220" s="165"/>
-      <c r="D220" s="165"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A221" s="165"/>
-      <c r="B221" s="165"/>
-      <c r="C221" s="165"/>
-      <c r="D221" s="165"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A222" s="165"/>
-      <c r="B222" s="165"/>
-      <c r="C222" s="165"/>
-      <c r="D222" s="165"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A223" s="165"/>
-      <c r="B223" s="165"/>
-      <c r="C223" s="165"/>
-      <c r="D223" s="165"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A224" s="165"/>
-      <c r="B224" s="165"/>
-      <c r="C224" s="165"/>
-      <c r="D224" s="165"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A225" s="165"/>
-      <c r="B225" s="165"/>
-      <c r="C225" s="165"/>
-      <c r="D225" s="165"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A226" s="165"/>
-      <c r="B226" s="165"/>
-      <c r="C226" s="165"/>
-      <c r="D226" s="165"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A227" s="165"/>
-      <c r="B227" s="165"/>
-      <c r="C227" s="165"/>
-      <c r="D227" s="165"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A228" s="165"/>
-      <c r="B228" s="165"/>
-      <c r="C228" s="165"/>
-      <c r="D228" s="165"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A229" s="165"/>
-      <c r="B229" s="165"/>
-      <c r="C229" s="165"/>
-      <c r="D229" s="165"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A230" s="165"/>
-      <c r="B230" s="165"/>
-      <c r="C230" s="165"/>
-      <c r="D230" s="165"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A231" s="165"/>
-      <c r="B231" s="165"/>
-      <c r="C231" s="165"/>
-      <c r="D231" s="165"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A232" s="165"/>
-      <c r="B232" s="165"/>
-      <c r="C232" s="165"/>
-      <c r="D232" s="165"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A233" s="165"/>
-      <c r="B233" s="165"/>
-      <c r="C233" s="165"/>
-      <c r="D233" s="165"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A234" s="165"/>
-      <c r="B234" s="165"/>
-      <c r="C234" s="165"/>
-      <c r="D234" s="165"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A235" s="165"/>
-      <c r="B235" s="165"/>
-      <c r="C235" s="165"/>
-      <c r="D235" s="165"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A236" s="165"/>
-      <c r="B236" s="165"/>
-      <c r="C236" s="165"/>
-      <c r="D236" s="165"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A237" s="165"/>
-      <c r="B237" s="165"/>
-      <c r="C237" s="165"/>
-      <c r="D237" s="165"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A238" s="165"/>
-      <c r="B238" s="165"/>
-      <c r="C238" s="165"/>
-      <c r="D238" s="165"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A239" s="165"/>
-      <c r="B239" s="165"/>
-      <c r="C239" s="165"/>
-      <c r="D239" s="165"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A240" s="165"/>
-      <c r="B240" s="165"/>
-      <c r="C240" s="165"/>
-      <c r="D240" s="165"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A241" s="165"/>
-      <c r="B241" s="165"/>
-      <c r="C241" s="165"/>
-      <c r="D241" s="165"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A242" s="165"/>
-      <c r="B242" s="165"/>
-      <c r="C242" s="165"/>
-      <c r="D242" s="165"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A243" s="165"/>
-      <c r="B243" s="165"/>
-      <c r="C243" s="165"/>
-      <c r="D243" s="165"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A244" s="165"/>
-      <c r="B244" s="165"/>
-      <c r="C244" s="165"/>
-      <c r="D244" s="165"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A245" s="165"/>
-      <c r="B245" s="165"/>
-      <c r="C245" s="165"/>
-      <c r="D245" s="165"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A246" s="165"/>
-      <c r="B246" s="165"/>
-      <c r="C246" s="165"/>
-      <c r="D246" s="165"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A247" s="165"/>
-      <c r="B247" s="165"/>
-      <c r="C247" s="165"/>
-      <c r="D247" s="165"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A248" s="165"/>
-      <c r="B248" s="165"/>
-      <c r="C248" s="165"/>
-      <c r="D248" s="165"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A249" s="165"/>
-      <c r="B249" s="165"/>
-      <c r="C249" s="165"/>
-      <c r="D249" s="165"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A250" s="165"/>
-      <c r="B250" s="165"/>
-      <c r="C250" s="165"/>
-      <c r="D250" s="165"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A251" s="165"/>
-      <c r="B251" s="165"/>
-      <c r="C251" s="165"/>
-      <c r="D251" s="165"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A252" s="165"/>
-      <c r="B252" s="165"/>
-      <c r="C252" s="165"/>
-      <c r="D252" s="165"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A253" s="165"/>
-      <c r="B253" s="165"/>
-      <c r="C253" s="165"/>
-      <c r="D253" s="165"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A254" s="165"/>
-      <c r="B254" s="165"/>
-      <c r="C254" s="165"/>
-      <c r="D254" s="165"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A255" s="165"/>
-      <c r="B255" s="165"/>
-      <c r="C255" s="165"/>
-      <c r="D255" s="165"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A256" s="165"/>
-      <c r="B256" s="165"/>
-      <c r="C256" s="165"/>
-      <c r="D256" s="165"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A257" s="165"/>
-      <c r="B257" s="165"/>
-      <c r="C257" s="165"/>
-      <c r="D257" s="165"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A258" s="165"/>
-      <c r="B258" s="165"/>
-      <c r="C258" s="165"/>
-      <c r="D258" s="165"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A259" s="165"/>
-      <c r="B259" s="165"/>
-      <c r="C259" s="165"/>
-      <c r="D259" s="165"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A260" s="165"/>
-      <c r="B260" s="165"/>
-      <c r="C260" s="165"/>
-      <c r="D260" s="165"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A261" s="165"/>
-      <c r="B261" s="165"/>
-      <c r="C261" s="165"/>
-      <c r="D261" s="165"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A262" s="165"/>
-      <c r="B262" s="165"/>
-      <c r="C262" s="165"/>
-      <c r="D262" s="165"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A263" s="165"/>
-      <c r="B263" s="165"/>
-      <c r="C263" s="165"/>
-      <c r="D263" s="165"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A264" s="165"/>
-      <c r="B264" s="165"/>
-      <c r="C264" s="165"/>
-      <c r="D264" s="165"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A265" s="165"/>
-      <c r="B265" s="165"/>
-      <c r="C265" s="165"/>
-      <c r="D265" s="165"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A266" s="165"/>
-      <c r="B266" s="165"/>
-      <c r="C266" s="165"/>
-      <c r="D266" s="165"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A267" s="165"/>
-      <c r="B267" s="165"/>
-      <c r="C267" s="165"/>
-      <c r="D267" s="165"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A268" s="165"/>
-      <c r="B268" s="165"/>
-      <c r="C268" s="165"/>
-      <c r="D268" s="165"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A269" s="165"/>
-      <c r="B269" s="165"/>
-      <c r="C269" s="165"/>
-      <c r="D269" s="165"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A270" s="165"/>
-      <c r="B270" s="165"/>
-      <c r="C270" s="165"/>
-      <c r="D270" s="165"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A271" s="165"/>
-      <c r="B271" s="165"/>
-      <c r="C271" s="165"/>
-      <c r="D271" s="165"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A272" s="165"/>
-      <c r="B272" s="165"/>
-      <c r="C272" s="165"/>
-      <c r="D272" s="165"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A273" s="165"/>
-      <c r="B273" s="165"/>
-      <c r="C273" s="165"/>
-      <c r="D273" s="165"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A274" s="165"/>
-      <c r="B274" s="165"/>
-      <c r="C274" s="165"/>
-      <c r="D274" s="165"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A275" s="165"/>
-      <c r="B275" s="165"/>
-      <c r="C275" s="165"/>
-      <c r="D275" s="165"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A276" s="165"/>
-      <c r="B276" s="165"/>
-      <c r="C276" s="165"/>
-      <c r="D276" s="165"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A277" s="165"/>
-      <c r="B277" s="165"/>
-      <c r="C277" s="165"/>
-      <c r="D277" s="165"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A278" s="165"/>
-      <c r="B278" s="165"/>
-      <c r="C278" s="165"/>
-      <c r="D278" s="165"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A279" s="165"/>
-      <c r="B279" s="165"/>
-      <c r="C279" s="165"/>
-      <c r="D279" s="165"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A280" s="165"/>
-      <c r="B280" s="165"/>
-      <c r="C280" s="165"/>
-      <c r="D280" s="165"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A281" s="165"/>
-      <c r="B281" s="165"/>
-      <c r="C281" s="165"/>
-      <c r="D281" s="165"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A282" s="165"/>
-      <c r="B282" s="165"/>
-      <c r="C282" s="165"/>
-      <c r="D282" s="165"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A283" s="165"/>
-      <c r="B283" s="165"/>
-      <c r="C283" s="165"/>
-      <c r="D283" s="165"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A284" s="165"/>
-      <c r="B284" s="165"/>
-      <c r="C284" s="165"/>
-      <c r="D284" s="165"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="165"/>
-      <c r="B285" s="165"/>
-      <c r="C285" s="165"/>
-      <c r="D285" s="165"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A286" s="165"/>
-      <c r="B286" s="165"/>
-      <c r="C286" s="165"/>
-      <c r="D286" s="165"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A287" s="165"/>
-      <c r="B287" s="165"/>
-      <c r="C287" s="165"/>
-      <c r="D287" s="165"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A288" s="165"/>
-      <c r="B288" s="165"/>
-      <c r="C288" s="165"/>
-      <c r="D288" s="165"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A289" s="165"/>
-      <c r="B289" s="165"/>
-      <c r="C289" s="165"/>
-      <c r="D289" s="165"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="165"/>
-      <c r="B290" s="165"/>
-      <c r="C290" s="165"/>
-      <c r="D290" s="165"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A291" s="165"/>
-      <c r="B291" s="165"/>
-      <c r="C291" s="165"/>
-      <c r="D291" s="165"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A292" s="165"/>
-      <c r="B292" s="165"/>
-      <c r="C292" s="165"/>
-      <c r="D292" s="165"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A293" s="165"/>
-      <c r="B293" s="165"/>
-      <c r="C293" s="165"/>
-      <c r="D293" s="165"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A294" s="165"/>
-      <c r="B294" s="165"/>
-      <c r="C294" s="165"/>
-      <c r="D294" s="165"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A295" s="165"/>
-      <c r="B295" s="165"/>
-      <c r="C295" s="165"/>
-      <c r="D295" s="165"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A296" s="165"/>
-      <c r="B296" s="165"/>
-      <c r="C296" s="165"/>
-      <c r="D296" s="165"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A297" s="165"/>
-      <c r="B297" s="165"/>
-      <c r="C297" s="165"/>
-      <c r="D297" s="165"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A298" s="165"/>
-      <c r="B298" s="165"/>
-      <c r="C298" s="165"/>
-      <c r="D298" s="165"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A299" s="165"/>
-      <c r="B299" s="165"/>
-      <c r="C299" s="165"/>
-      <c r="D299" s="165"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A300" s="165"/>
-      <c r="B300" s="165"/>
-      <c r="C300" s="165"/>
-      <c r="D300" s="165"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A301" s="165"/>
-      <c r="B301" s="165"/>
-      <c r="C301" s="165"/>
-      <c r="D301" s="165"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A302" s="165"/>
-      <c r="B302" s="165"/>
-      <c r="C302" s="165"/>
-      <c r="D302" s="165"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A303" s="165"/>
-      <c r="B303" s="165"/>
-      <c r="C303" s="165"/>
-      <c r="D303" s="165"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A304" s="165"/>
-      <c r="B304" s="165"/>
-      <c r="C304" s="165"/>
-      <c r="D304" s="165"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A305" s="165"/>
-      <c r="B305" s="165"/>
-      <c r="C305" s="165"/>
-      <c r="D305" s="165"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A306" s="165"/>
-      <c r="B306" s="165"/>
-      <c r="C306" s="165"/>
-      <c r="D306" s="165"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A307" s="165"/>
-      <c r="B307" s="165"/>
-      <c r="C307" s="165"/>
-      <c r="D307" s="165"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A308" s="165"/>
-      <c r="B308" s="165"/>
-      <c r="C308" s="165"/>
-      <c r="D308" s="165"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A309" s="165"/>
-      <c r="B309" s="165"/>
-      <c r="C309" s="165"/>
-      <c r="D309" s="165"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A310" s="165"/>
-      <c r="B310" s="165"/>
-      <c r="C310" s="165"/>
-      <c r="D310" s="165"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A311" s="165"/>
-      <c r="B311" s="165"/>
-      <c r="C311" s="165"/>
-      <c r="D311" s="165"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A312" s="165"/>
-      <c r="B312" s="165"/>
-      <c r="C312" s="165"/>
-      <c r="D312" s="165"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A313" s="165"/>
-      <c r="B313" s="165"/>
-      <c r="C313" s="165"/>
-      <c r="D313" s="165"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A314" s="165"/>
-      <c r="B314" s="165"/>
-      <c r="C314" s="165"/>
-      <c r="D314" s="165"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A315" s="165"/>
-      <c r="B315" s="165"/>
-      <c r="C315" s="165"/>
-      <c r="D315" s="165"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A316" s="165"/>
-      <c r="B316" s="165"/>
-      <c r="C316" s="165"/>
-      <c r="D316" s="165"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A317" s="165"/>
-      <c r="B317" s="165"/>
-      <c r="C317" s="165"/>
-      <c r="D317" s="165"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A318" s="165"/>
-      <c r="B318" s="165"/>
-      <c r="C318" s="165"/>
-      <c r="D318" s="165"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A319" s="165"/>
-      <c r="B319" s="165"/>
-      <c r="C319" s="165"/>
-      <c r="D319" s="165"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A320" s="165"/>
-      <c r="B320" s="165"/>
-      <c r="C320" s="165"/>
-      <c r="D320" s="165"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A321" s="165"/>
-      <c r="B321" s="165"/>
-      <c r="C321" s="165"/>
-      <c r="D321" s="165"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A322" s="165"/>
-      <c r="B322" s="165"/>
-      <c r="C322" s="165"/>
-      <c r="D322" s="165"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A323" s="165"/>
-      <c r="B323" s="165"/>
-      <c r="C323" s="165"/>
-      <c r="D323" s="165"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A324" s="165"/>
-      <c r="B324" s="165"/>
-      <c r="C324" s="165"/>
-      <c r="D324" s="165"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A325" s="165"/>
-      <c r="B325" s="165"/>
-      <c r="C325" s="165"/>
-      <c r="D325" s="165"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A326" s="165"/>
-      <c r="B326" s="165"/>
-      <c r="C326" s="165"/>
-      <c r="D326" s="165"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A327" s="165"/>
-      <c r="B327" s="165"/>
-      <c r="C327" s="165"/>
-      <c r="D327" s="165"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A328" s="165"/>
-      <c r="B328" s="165"/>
-      <c r="C328" s="165"/>
-      <c r="D328" s="165"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A329" s="165"/>
-      <c r="B329" s="165"/>
-      <c r="C329" s="165"/>
-      <c r="D329" s="165"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A330" s="165"/>
-      <c r="B330" s="165"/>
-      <c r="C330" s="165"/>
-      <c r="D330" s="165"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A331" s="165"/>
-      <c r="B331" s="165"/>
-      <c r="C331" s="165"/>
-      <c r="D331" s="165"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A332" s="165"/>
-      <c r="B332" s="165"/>
-      <c r="C332" s="165"/>
-      <c r="D332" s="165"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A333" s="165"/>
-      <c r="B333" s="165"/>
-      <c r="C333" s="165"/>
-      <c r="D333" s="165"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A334" s="165"/>
-      <c r="B334" s="165"/>
-      <c r="C334" s="165"/>
-      <c r="D334" s="165"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A335" s="165"/>
-      <c r="B335" s="165"/>
-      <c r="C335" s="165"/>
-      <c r="D335" s="165"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A336" s="165"/>
-      <c r="B336" s="165"/>
-      <c r="C336" s="165"/>
-      <c r="D336" s="165"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A337" s="165"/>
-      <c r="B337" s="165"/>
-      <c r="C337" s="165"/>
-      <c r="D337" s="165"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A338" s="165"/>
-      <c r="B338" s="165"/>
-      <c r="C338" s="165"/>
-      <c r="D338" s="165"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A339" s="165"/>
-      <c r="B339" s="165"/>
-      <c r="C339" s="165"/>
-      <c r="D339" s="165"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A340" s="165"/>
-      <c r="B340" s="165"/>
-      <c r="C340" s="165"/>
-      <c r="D340" s="165"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A341" s="165"/>
-      <c r="B341" s="165"/>
-      <c r="C341" s="165"/>
-      <c r="D341" s="165"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A342" s="165"/>
-      <c r="B342" s="165"/>
-      <c r="C342" s="165"/>
-      <c r="D342" s="165"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A343" s="165"/>
-      <c r="B343" s="165"/>
-      <c r="C343" s="165"/>
-      <c r="D343" s="165"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A344" s="165"/>
-      <c r="B344" s="165"/>
-      <c r="C344" s="165"/>
-      <c r="D344" s="165"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A345" s="165"/>
-      <c r="B345" s="165"/>
-      <c r="C345" s="165"/>
-      <c r="D345" s="165"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A346" s="165"/>
-      <c r="B346" s="165"/>
-      <c r="C346" s="165"/>
-      <c r="D346" s="165"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A347" s="165"/>
-      <c r="B347" s="165"/>
-      <c r="C347" s="165"/>
-      <c r="D347" s="165"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A348" s="165"/>
-      <c r="B348" s="165"/>
-      <c r="C348" s="165"/>
-      <c r="D348" s="165"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A349" s="165"/>
-      <c r="B349" s="165"/>
-      <c r="C349" s="165"/>
-      <c r="D349" s="165"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A350" s="165"/>
-      <c r="B350" s="165"/>
-      <c r="C350" s="165"/>
-      <c r="D350" s="165"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A351" s="165"/>
-      <c r="B351" s="165"/>
-      <c r="C351" s="165"/>
-      <c r="D351" s="165"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A352" s="165"/>
-      <c r="B352" s="165"/>
-      <c r="C352" s="165"/>
-      <c r="D352" s="165"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A353" s="165"/>
-      <c r="B353" s="165"/>
-      <c r="C353" s="165"/>
-      <c r="D353" s="165"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A354" s="165"/>
-      <c r="B354" s="165"/>
-      <c r="C354" s="165"/>
-      <c r="D354" s="165"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A355" s="165"/>
-      <c r="B355" s="165"/>
-      <c r="C355" s="165"/>
-      <c r="D355" s="165"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A356" s="165"/>
-      <c r="B356" s="165"/>
-      <c r="C356" s="165"/>
-      <c r="D356" s="165"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A357" s="165"/>
-      <c r="B357" s="165"/>
-      <c r="C357" s="165"/>
-      <c r="D357" s="165"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A358" s="165"/>
-      <c r="B358" s="165"/>
-      <c r="C358" s="165"/>
-      <c r="D358" s="165"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A359" s="165"/>
-      <c r="B359" s="165"/>
-      <c r="C359" s="165"/>
-      <c r="D359" s="165"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A360" s="165"/>
-      <c r="B360" s="165"/>
-      <c r="C360" s="165"/>
-      <c r="D360" s="165"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A361" s="165"/>
-      <c r="B361" s="165"/>
-      <c r="C361" s="165"/>
-      <c r="D361" s="165"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A362" s="165"/>
-      <c r="B362" s="165"/>
-      <c r="C362" s="165"/>
-      <c r="D362" s="165"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A363" s="165"/>
-      <c r="B363" s="165"/>
-      <c r="C363" s="165"/>
-      <c r="D363" s="165"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A364" s="165"/>
-      <c r="B364" s="165"/>
-      <c r="C364" s="165"/>
-      <c r="D364" s="165"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A365" s="165"/>
-      <c r="B365" s="165"/>
-      <c r="C365" s="165"/>
-      <c r="D365" s="165"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A366" s="165"/>
-      <c r="B366" s="165"/>
-      <c r="C366" s="165"/>
-      <c r="D366" s="165"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A367" s="165"/>
-      <c r="B367" s="165"/>
-      <c r="C367" s="165"/>
-      <c r="D367" s="165"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A368" s="165"/>
-      <c r="B368" s="165"/>
-      <c r="C368" s="165"/>
-      <c r="D368" s="165"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A369" s="165"/>
-      <c r="B369" s="165"/>
-      <c r="C369" s="165"/>
-      <c r="D369" s="165"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A370" s="165"/>
-      <c r="B370" s="165"/>
-      <c r="C370" s="165"/>
-      <c r="D370" s="165"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A371" s="165"/>
-      <c r="B371" s="165"/>
-      <c r="C371" s="165"/>
-      <c r="D371" s="165"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A372" s="165"/>
-      <c r="B372" s="165"/>
-      <c r="C372" s="165"/>
-      <c r="D372" s="165"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A373" s="165"/>
-      <c r="B373" s="165"/>
-      <c r="C373" s="165"/>
-      <c r="D373" s="165"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A374" s="165"/>
-      <c r="B374" s="165"/>
-      <c r="C374" s="165"/>
-      <c r="D374" s="165"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A375" s="165"/>
-      <c r="B375" s="165"/>
-      <c r="C375" s="165"/>
-      <c r="D375" s="165"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A376" s="165"/>
-      <c r="B376" s="165"/>
-      <c r="C376" s="165"/>
-      <c r="D376" s="165"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A377" s="165"/>
-      <c r="B377" s="165"/>
-      <c r="C377" s="165"/>
-      <c r="D377" s="165"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A378" s="165"/>
-      <c r="B378" s="165"/>
-      <c r="C378" s="165"/>
-      <c r="D378" s="165"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A379" s="165"/>
-      <c r="B379" s="165"/>
-      <c r="C379" s="165"/>
-      <c r="D379" s="165"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A380" s="165"/>
-      <c r="B380" s="165"/>
-      <c r="C380" s="165"/>
-      <c r="D380" s="165"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A381" s="165"/>
-      <c r="B381" s="165"/>
-      <c r="C381" s="165"/>
-      <c r="D381" s="165"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A382" s="165"/>
-      <c r="B382" s="165"/>
-      <c r="C382" s="165"/>
-      <c r="D382" s="165"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A383" s="165"/>
-      <c r="B383" s="165"/>
-      <c r="C383" s="165"/>
-      <c r="D383" s="165"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A384" s="165"/>
-      <c r="B384" s="165"/>
-      <c r="C384" s="165"/>
-      <c r="D384" s="165"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A385" s="165"/>
-      <c r="B385" s="165"/>
-      <c r="C385" s="165"/>
-      <c r="D385" s="165"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A386" s="165"/>
-      <c r="B386" s="165"/>
-      <c r="C386" s="165"/>
-      <c r="D386" s="165"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A387" s="165"/>
-      <c r="B387" s="165"/>
-      <c r="C387" s="165"/>
-      <c r="D387" s="165"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A388" s="165"/>
-      <c r="B388" s="165"/>
-      <c r="C388" s="165"/>
-      <c r="D388" s="165"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A389" s="165"/>
-      <c r="B389" s="165"/>
-      <c r="C389" s="165"/>
-      <c r="D389" s="165"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A390" s="165"/>
-      <c r="B390" s="165"/>
-      <c r="C390" s="165"/>
-      <c r="D390" s="165"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A391" s="165"/>
-      <c r="B391" s="165"/>
-      <c r="C391" s="165"/>
-      <c r="D391" s="165"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A392" s="165"/>
-      <c r="B392" s="165"/>
-      <c r="C392" s="165"/>
-      <c r="D392" s="165"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A393" s="165"/>
-      <c r="B393" s="165"/>
-      <c r="C393" s="165"/>
-      <c r="D393" s="165"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A394" s="165"/>
-      <c r="B394" s="165"/>
-      <c r="C394" s="165"/>
-      <c r="D394" s="165"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A395" s="165"/>
-      <c r="B395" s="165"/>
-      <c r="C395" s="165"/>
-      <c r="D395" s="165"/>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A396" s="165"/>
-      <c r="B396" s="165"/>
-      <c r="C396" s="165"/>
-      <c r="D396" s="165"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:E45">
-    <cfRule dxfId="28" operator="equal" priority="2" type="cellIs">
+    <cfRule dxfId="25" operator="equal" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="27" operator="greaterThan" priority="3" type="cellIs">
+    <cfRule dxfId="24" operator="greaterThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8523,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783EEC30-26F5-4E4B-A202-0672BF52BF40}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -8548,106 +5541,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="162"/>
-      <c r="C1" s="162"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="162"/>
-      <c r="M1" s="162"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="162"/>
-      <c r="P1" s="162"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163" t="s">
+      <c r="D2" s="228"/>
+      <c r="E2" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163" t="s">
+      <c r="F2" s="228"/>
+      <c r="G2" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163" t="s">
+      <c r="H2" s="228"/>
+      <c r="I2" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163" t="s">
+      <c r="J2" s="228"/>
+      <c r="K2" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163" t="s">
+      <c r="L2" s="228"/>
+      <c r="M2" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163" t="s">
+      <c r="N2" s="228"/>
+      <c r="O2" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="163"/>
+      <c r="P2" s="228"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="171" t="s">
+      <c r="F3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="171" t="s">
+      <c r="G3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="171" t="s">
+      <c r="I3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="171" t="s">
+      <c r="J3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="171" t="s">
+      <c r="K3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="171" t="s">
+      <c r="L3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="171" t="s">
+      <c r="M3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="171" t="s">
+      <c r="N3" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="171" t="s">
+      <c r="P3" s="167" t="s">
         <v>49</v>
       </c>
     </row>
@@ -8773,7 +5766,7 @@
         <f>Both_BO_Value!B6-Differences!B24</f>
         <v>11.97</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -8830,7 +5823,7 @@
         <f>Both_BO_Value!B7-Differences!B25</f>
         <v>0</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -8887,7 +5880,7 @@
         <f>Both_BO_Value!B8-Differences!B26</f>
         <v>122.36</v>
       </c>
-      <c r="C8" s="169" t="s">
+      <c r="C8" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -8907,13 +5900,13 @@
         <f>Both_BO_Value!H8-Differences!H26</f>
         <v>0</v>
       </c>
-      <c r="I8" s="169" t="s">
+      <c r="I8" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K8" s="169" t="s">
+      <c r="K8" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -8942,37 +5935,37 @@
         <f>Both_BO_Value!B9-Differences!B27</f>
         <v>124</v>
       </c>
-      <c r="C9" s="169" t="s">
+      <c r="C9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="169" t="s">
+      <c r="E9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G9" s="169" t="s">
+      <c r="G9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="169" t="s">
+      <c r="I9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K9" s="169" t="s">
+      <c r="K9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M9" s="169" t="s">
+      <c r="M9" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N9" s="6" t="s">
@@ -8994,37 +5987,37 @@
         <f>Both_BO_Value!B10-Differences!B28</f>
         <v>124</v>
       </c>
-      <c r="C10" s="169" t="s">
+      <c r="C10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E10" s="169" t="s">
+      <c r="E10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G10" s="169" t="s">
+      <c r="G10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="169" t="s">
+      <c r="I10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K10" s="169" t="s">
+      <c r="K10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M10" s="169" t="s">
+      <c r="M10" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -9046,37 +6039,37 @@
         <f>Both_BO_Value!B11-Differences!B29</f>
         <v>9.7100000000000009</v>
       </c>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E11" s="169" t="s">
+      <c r="E11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G11" s="169" t="s">
+      <c r="G11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="169" t="s">
+      <c r="I11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="169" t="s">
+      <c r="K11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M11" s="169" t="s">
+      <c r="M11" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -9098,37 +6091,37 @@
         <f>Both_BO_Value!B12-Differences!B30</f>
         <v>0</v>
       </c>
-      <c r="C12" s="169" t="s">
+      <c r="C12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="169" t="s">
+      <c r="E12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="169" t="s">
+      <c r="I12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="169" t="s">
+      <c r="K12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M12" s="169" t="s">
+      <c r="M12" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N12" s="6" t="s">
@@ -9150,37 +6143,37 @@
         <f>Both_BO_Value!B13-Differences!B31</f>
         <v>6.3E-2</v>
       </c>
-      <c r="C13" s="169" t="s">
+      <c r="C13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E13" s="169" t="s">
+      <c r="E13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="169" t="s">
+      <c r="G13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="169" t="s">
+      <c r="I13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="169" t="s">
+      <c r="K13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M13" s="169" t="s">
+      <c r="M13" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N13" s="6" t="s">
@@ -9202,43 +6195,43 @@
         <f>Both_BO_Value!B14-Differences!B32</f>
         <v>0.86299999999999999</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="169" t="s">
+      <c r="E14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G14" s="169" t="s">
+      <c r="G14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="169" t="s">
+      <c r="I14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="169" t="s">
+      <c r="K14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="169" t="s">
+      <c r="M14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="O14" s="169" t="s">
+      <c r="O14" s="165" t="s">
         <v>180</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -9253,43 +6246,43 @@
         <f>Both_BO_Value!B15-Differences!B33</f>
         <v>44.42</v>
       </c>
-      <c r="C15" s="169" t="s">
+      <c r="C15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="169" t="s">
+      <c r="E15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="169" t="s">
+      <c r="I15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="K15" s="169" t="s">
+      <c r="K15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="M15" s="169" t="s">
+      <c r="M15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="O15" s="169" t="s">
+      <c r="O15" s="165" t="s">
         <v>180</v>
       </c>
       <c r="P15" s="6" t="s">
@@ -9309,79 +6302,79 @@
     <mergeCell ref="O2:P2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule dxfId="20" operator="greaterThan" priority="21" type="cellIs">
+    <cfRule dxfId="23" operator="lessThan" priority="19" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="19" operator="equal" priority="20" type="cellIs">
+    <cfRule dxfId="22" operator="equal" priority="20" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="lessThan" priority="19" type="cellIs">
+    <cfRule dxfId="21" operator="greaterThan" priority="21" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F8">
-    <cfRule dxfId="17" operator="lessThan" priority="16" type="cellIs">
+    <cfRule dxfId="20" operator="lessThan" priority="16" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="equal" priority="17" type="cellIs">
+    <cfRule dxfId="19" operator="equal" priority="17" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="15" operator="greaterThan" priority="18" type="cellIs">
+    <cfRule dxfId="18" operator="greaterThan" priority="18" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H8">
-    <cfRule dxfId="14" operator="lessThan" priority="13" type="cellIs">
+    <cfRule dxfId="17" operator="lessThan" priority="13" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="13" operator="equal" priority="14" type="cellIs">
+    <cfRule dxfId="16" operator="equal" priority="14" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="greaterThan" priority="15" type="cellIs">
+    <cfRule dxfId="15" operator="greaterThan" priority="15" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7">
-    <cfRule dxfId="11" operator="lessThan" priority="10" type="cellIs">
+    <cfRule dxfId="14" operator="lessThan" priority="10" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="equal" priority="11" type="cellIs">
+    <cfRule dxfId="13" operator="equal" priority="11" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="9" operator="greaterThan" priority="12" type="cellIs">
+    <cfRule dxfId="12" operator="greaterThan" priority="12" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L7">
-    <cfRule dxfId="8" operator="lessThan" priority="7" type="cellIs">
+    <cfRule dxfId="11" operator="lessThan" priority="7" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="7" operator="equal" priority="8" type="cellIs">
+    <cfRule dxfId="10" operator="equal" priority="8" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="greaterThan" priority="9" type="cellIs">
+    <cfRule dxfId="9" operator="greaterThan" priority="9" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N8">
-    <cfRule dxfId="5" operator="lessThan" priority="4" type="cellIs">
+    <cfRule dxfId="8" operator="lessThan" priority="4" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="equal" priority="5" type="cellIs">
+    <cfRule dxfId="7" operator="equal" priority="5" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="3" operator="greaterThan" priority="6" type="cellIs">
+    <cfRule dxfId="6" operator="greaterThan" priority="6" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P13">
-    <cfRule dxfId="2" operator="lessThan" priority="1" type="cellIs">
+    <cfRule dxfId="5" operator="lessThan" priority="1" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="1" operator="equal" priority="2" type="cellIs">
+    <cfRule dxfId="4" operator="equal" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="greaterThan" priority="3" type="cellIs">
+    <cfRule dxfId="3" operator="greaterThan" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9391,7 +6384,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27932D39-BE19-45BB-BA59-DCA53411D6F6}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
@@ -9409,24 +6402,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="164" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="168" t="s">
+      <c r="B1" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="168" t="s">
+      <c r="C1" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="168" t="s">
+      <c r="D1" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="164" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="230" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="84" t="s">
@@ -9436,13 +6429,13 @@
         <v>101</v>
       </c>
       <c r="D2" s="84"/>
-      <c r="E2" s="167">
+      <c r="E2" s="163">
         <f>C2-D2</f>
         <v>1483.76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="164"/>
+      <c r="A3" s="230"/>
       <c r="B3" s="84" t="s">
         <v>131</v>
       </c>
@@ -9450,13 +6443,13 @@
         <v>172</v>
       </c>
       <c r="D3" s="84"/>
-      <c r="E3" s="167">
+      <c r="E3" s="163">
         <f ref="E3:E66" si="0" t="shared">C3-D3</f>
         <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="164"/>
+      <c r="A4" s="230"/>
       <c r="B4" s="84" t="s">
         <v>13</v>
       </c>
@@ -9464,13 +6457,13 @@
         <v>104</v>
       </c>
       <c r="D4" s="84"/>
-      <c r="E4" s="167">
+      <c r="E4" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="164"/>
+      <c r="A5" s="230"/>
       <c r="B5" s="84" t="s">
         <v>132</v>
       </c>
@@ -9478,13 +6471,13 @@
         <v>106</v>
       </c>
       <c r="D5" s="84"/>
-      <c r="E5" s="167">
+      <c r="E5" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="164"/>
+      <c r="A6" s="230"/>
       <c r="B6" s="84" t="s">
         <v>133</v>
       </c>
@@ -9492,13 +6485,13 @@
         <v>106</v>
       </c>
       <c r="D6" s="84"/>
-      <c r="E6" s="167">
+      <c r="E6" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="164" t="s">
+      <c r="A7" s="230" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="84" t="s">
@@ -9508,13 +6501,13 @@
         <v>101</v>
       </c>
       <c r="D7" s="84"/>
-      <c r="E7" s="167">
+      <c r="E7" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="164"/>
+      <c r="A8" s="230"/>
       <c r="B8" s="84" t="s">
         <v>131</v>
       </c>
@@ -9522,13 +6515,13 @@
         <v>172</v>
       </c>
       <c r="D8" s="84"/>
-      <c r="E8" s="167">
+      <c r="E8" s="163">
         <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="164"/>
+      <c r="A9" s="230"/>
       <c r="B9" s="84" t="s">
         <v>13</v>
       </c>
@@ -9536,13 +6529,13 @@
         <v>104</v>
       </c>
       <c r="D9" s="84"/>
-      <c r="E9" s="167">
+      <c r="E9" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="164"/>
+      <c r="A10" s="230"/>
       <c r="B10" s="84" t="s">
         <v>132</v>
       </c>
@@ -9550,13 +6543,13 @@
         <v>106</v>
       </c>
       <c r="D10" s="84"/>
-      <c r="E10" s="167">
+      <c r="E10" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="164"/>
+      <c r="A11" s="230"/>
       <c r="B11" s="84" t="s">
         <v>133</v>
       </c>
@@ -9564,13 +6557,13 @@
         <v>173</v>
       </c>
       <c r="D11" s="84"/>
-      <c r="E11" s="167">
+      <c r="E11" s="163">
         <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="164" t="s">
+      <c r="A12" s="230" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="84" t="s">
@@ -9580,13 +6573,13 @@
         <v>174</v>
       </c>
       <c r="D12" s="84"/>
-      <c r="E12" s="167">
+      <c r="E12" s="163">
         <f si="0" t="shared"/>
         <v>1410.04</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="164"/>
+      <c r="A13" s="230"/>
       <c r="B13" s="84" t="s">
         <v>131</v>
       </c>
@@ -9594,13 +6587,13 @@
         <v>175</v>
       </c>
       <c r="D13" s="84"/>
-      <c r="E13" s="167">
+      <c r="E13" s="163">
         <f si="0" t="shared"/>
         <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="164"/>
+      <c r="A14" s="230"/>
       <c r="B14" s="84" t="s">
         <v>13</v>
       </c>
@@ -9608,13 +6601,13 @@
         <v>176</v>
       </c>
       <c r="D14" s="84"/>
-      <c r="E14" s="167">
+      <c r="E14" s="163">
         <f si="0" t="shared"/>
         <v>116.28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="164"/>
+      <c r="A15" s="230"/>
       <c r="B15" s="84" t="s">
         <v>132</v>
       </c>
@@ -9622,13 +6615,13 @@
         <v>106</v>
       </c>
       <c r="D15" s="84"/>
-      <c r="E15" s="167">
+      <c r="E15" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
+      <c r="A16" s="230"/>
       <c r="B16" s="84" t="s">
         <v>133</v>
       </c>
@@ -9636,13 +6629,13 @@
         <v>173</v>
       </c>
       <c r="D16" s="84"/>
-      <c r="E16" s="167">
+      <c r="E16" s="163">
         <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="230" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="84" t="s">
@@ -9652,13 +6645,13 @@
         <v>101</v>
       </c>
       <c r="D17" s="84"/>
-      <c r="E17" s="167">
+      <c r="E17" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
+      <c r="A18" s="230"/>
       <c r="B18" s="84" t="s">
         <v>131</v>
       </c>
@@ -9666,13 +6659,13 @@
         <v>172</v>
       </c>
       <c r="D18" s="84"/>
-      <c r="E18" s="167">
+      <c r="E18" s="163">
         <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
+      <c r="A19" s="230"/>
       <c r="B19" s="84" t="s">
         <v>13</v>
       </c>
@@ -9680,13 +6673,13 @@
         <v>104</v>
       </c>
       <c r="D19" s="84"/>
-      <c r="E19" s="167">
+      <c r="E19" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="164"/>
+      <c r="A20" s="230"/>
       <c r="B20" s="84" t="s">
         <v>132</v>
       </c>
@@ -9694,13 +6687,13 @@
         <v>106</v>
       </c>
       <c r="D20" s="84"/>
-      <c r="E20" s="167">
+      <c r="E20" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="164"/>
+      <c r="A21" s="230"/>
       <c r="B21" s="84" t="s">
         <v>133</v>
       </c>
@@ -9708,13 +6701,13 @@
         <v>173</v>
       </c>
       <c r="D21" s="84"/>
-      <c r="E21" s="167">
+      <c r="E21" s="163">
         <f si="0" t="shared"/>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="164" t="s">
+      <c r="A22" s="230" t="s">
         <v>137</v>
       </c>
       <c r="B22" s="84" t="s">
@@ -9723,48 +6716,48 @@
       <c r="C22" s="106" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="264" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="167">
+      <c r="D22" s="168" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="163">
         <f si="0" t="shared"/>
         <v>179.55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="164"/>
+      <c r="A23" s="230"/>
       <c r="B23" s="84" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="265" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="167">
+      <c r="D23" s="169" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="163">
         <f si="0" t="shared"/>
         <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="164"/>
+      <c r="A24" s="230"/>
       <c r="B24" s="84" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="D24" s="266" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="167">
+      <c r="D24" s="170" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="163">
         <f si="0" t="shared"/>
         <v>14.81</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="164" t="s">
+      <c r="A25" s="230" t="s">
         <v>138</v>
       </c>
       <c r="B25" s="84" t="s">
@@ -9774,13 +6767,13 @@
         <v>101</v>
       </c>
       <c r="D25" s="84"/>
-      <c r="E25" s="167">
+      <c r="E25" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="164"/>
+      <c r="A26" s="230"/>
       <c r="B26" s="84" t="s">
         <v>13</v>
       </c>
@@ -9788,13 +6781,13 @@
         <v>104</v>
       </c>
       <c r="D26" s="84"/>
-      <c r="E26" s="167">
+      <c r="E26" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="164"/>
+      <c r="A27" s="230"/>
       <c r="B27" s="84" t="s">
         <v>131</v>
       </c>
@@ -9802,13 +6795,13 @@
         <v>172</v>
       </c>
       <c r="D27" s="84"/>
-      <c r="E27" s="167">
+      <c r="E27" s="163">
         <f si="0" t="shared"/>
         <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="164"/>
+      <c r="A28" s="230"/>
       <c r="B28" s="84" t="s">
         <v>132</v>
       </c>
@@ -9816,13 +6809,13 @@
         <v>106</v>
       </c>
       <c r="D28" s="84"/>
-      <c r="E28" s="167">
+      <c r="E28" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="164"/>
+      <c r="A29" s="230"/>
       <c r="B29" s="84" t="s">
         <v>139</v>
       </c>
@@ -9830,13 +6823,13 @@
         <v>110</v>
       </c>
       <c r="D29" s="84"/>
-      <c r="E29" s="167">
+      <c r="E29" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="164"/>
+      <c r="A30" s="230"/>
       <c r="B30" s="84" t="s">
         <v>140</v>
       </c>
@@ -9844,13 +6837,13 @@
         <v>105</v>
       </c>
       <c r="D30" s="84"/>
-      <c r="E30" s="167">
+      <c r="E30" s="163">
         <f si="0" t="shared"/>
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="230" t="s">
         <v>141</v>
       </c>
       <c r="B31" s="84" t="s">
@@ -9860,13 +6853,13 @@
         <v>101</v>
       </c>
       <c r="D31" s="84"/>
-      <c r="E31" s="167">
+      <c r="E31" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="164"/>
+      <c r="A32" s="230"/>
       <c r="B32" s="84" t="s">
         <v>13</v>
       </c>
@@ -9874,13 +6867,13 @@
         <v>104</v>
       </c>
       <c r="D32" s="84"/>
-      <c r="E32" s="167">
+      <c r="E32" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="164"/>
+      <c r="A33" s="230"/>
       <c r="B33" s="84" t="s">
         <v>132</v>
       </c>
@@ -9888,13 +6881,13 @@
         <v>106</v>
       </c>
       <c r="D33" s="84"/>
-      <c r="E33" s="167">
+      <c r="E33" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="164"/>
+      <c r="A34" s="230"/>
       <c r="B34" s="84" t="s">
         <v>139</v>
       </c>
@@ -9902,13 +6895,13 @@
         <v>110</v>
       </c>
       <c r="D34" s="84"/>
-      <c r="E34" s="167">
+      <c r="E34" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="230" t="s">
         <v>142</v>
       </c>
       <c r="B35" s="84" t="s">
@@ -9918,13 +6911,13 @@
         <v>101</v>
       </c>
       <c r="D35" s="84"/>
-      <c r="E35" s="167">
+      <c r="E35" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="164"/>
+      <c r="A36" s="230"/>
       <c r="B36" s="84" t="s">
         <v>13</v>
       </c>
@@ -9932,13 +6925,13 @@
         <v>104</v>
       </c>
       <c r="D36" s="84"/>
-      <c r="E36" s="167">
+      <c r="E36" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="164"/>
+      <c r="A37" s="230"/>
       <c r="B37" s="84" t="s">
         <v>132</v>
       </c>
@@ -9946,13 +6939,13 @@
         <v>106</v>
       </c>
       <c r="D37" s="84"/>
-      <c r="E37" s="167">
+      <c r="E37" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="164"/>
+      <c r="A38" s="230"/>
       <c r="B38" s="84" t="s">
         <v>139</v>
       </c>
@@ -9960,13 +6953,13 @@
         <v>110</v>
       </c>
       <c r="D38" s="84"/>
-      <c r="E38" s="167">
+      <c r="E38" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="164"/>
+      <c r="A39" s="230"/>
       <c r="B39" s="84" t="s">
         <v>143</v>
       </c>
@@ -9974,13 +6967,13 @@
         <v>110</v>
       </c>
       <c r="D39" s="84"/>
-      <c r="E39" s="167">
+      <c r="E39" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="164"/>
+      <c r="A40" s="230"/>
       <c r="B40" s="84" t="s">
         <v>38</v>
       </c>
@@ -9988,13 +6981,13 @@
         <v>115</v>
       </c>
       <c r="D40" s="84"/>
-      <c r="E40" s="167">
+      <c r="E40" s="163">
         <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="164"/>
+      <c r="A41" s="230"/>
       <c r="B41" s="84" t="s">
         <v>144</v>
       </c>
@@ -10002,13 +6995,13 @@
         <v>102</v>
       </c>
       <c r="D41" s="84"/>
-      <c r="E41" s="167">
+      <c r="E41" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="164"/>
+      <c r="A42" s="230"/>
       <c r="B42" s="84" t="s">
         <v>145</v>
       </c>
@@ -10016,13 +7009,13 @@
         <v>102</v>
       </c>
       <c r="D42" s="84"/>
-      <c r="E42" s="167">
+      <c r="E42" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="164"/>
+      <c r="A43" s="230"/>
       <c r="B43" s="84" t="s">
         <v>146</v>
       </c>
@@ -10030,25 +7023,25 @@
         <v>102</v>
       </c>
       <c r="D43" s="84"/>
-      <c r="E43" s="167">
+      <c r="E43" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="164"/>
+      <c r="A44" s="230"/>
       <c r="B44" s="84" t="s">
         <v>147</v>
       </c>
       <c r="C44" s="84"/>
       <c r="D44" s="84"/>
-      <c r="E44" s="167">
+      <c r="E44" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="164"/>
+      <c r="A45" s="230"/>
       <c r="B45" s="84" t="s">
         <v>148</v>
       </c>
@@ -10056,13 +7049,13 @@
         <v>160</v>
       </c>
       <c r="D45" s="84"/>
-      <c r="E45" s="167">
+      <c r="E45" s="163">
         <f si="0" t="shared"/>
         <v>-6.9099999999999995E-2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="164"/>
+      <c r="A46" s="230"/>
       <c r="B46" s="84" t="s">
         <v>149</v>
       </c>
@@ -10070,13 +7063,13 @@
         <v>161</v>
       </c>
       <c r="D46" s="84"/>
-      <c r="E46" s="167">
+      <c r="E46" s="163">
         <f si="0" t="shared"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="164" t="s">
+      <c r="A47" s="230" t="s">
         <v>150</v>
       </c>
       <c r="B47" s="84" t="s">
@@ -10086,13 +7079,13 @@
         <v>101</v>
       </c>
       <c r="D47" s="84"/>
-      <c r="E47" s="167">
+      <c r="E47" s="163">
         <f si="0" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="164"/>
+      <c r="A48" s="230"/>
       <c r="B48" s="84" t="s">
         <v>13</v>
       </c>
@@ -10100,13 +7093,13 @@
         <v>104</v>
       </c>
       <c r="D48" s="84"/>
-      <c r="E48" s="167">
+      <c r="E48" s="163">
         <f si="0" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" s="164"/>
+      <c r="A49" s="230"/>
       <c r="B49" s="84" t="s">
         <v>132</v>
       </c>
@@ -10114,13 +7107,13 @@
         <v>106</v>
       </c>
       <c r="D49" s="84"/>
-      <c r="E49" s="167">
+      <c r="E49" s="163">
         <f si="0" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="164"/>
+      <c r="A50" s="230"/>
       <c r="B50" s="84" t="s">
         <v>139</v>
       </c>
@@ -10128,13 +7121,13 @@
         <v>110</v>
       </c>
       <c r="D50" s="84"/>
-      <c r="E50" s="167">
+      <c r="E50" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" s="164"/>
+      <c r="A51" s="230"/>
       <c r="B51" s="84" t="s">
         <v>143</v>
       </c>
@@ -10142,13 +7135,13 @@
         <v>110</v>
       </c>
       <c r="D51" s="84"/>
-      <c r="E51" s="167">
+      <c r="E51" s="163">
         <f si="0" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" s="164"/>
+      <c r="A52" s="230"/>
       <c r="B52" s="84" t="s">
         <v>38</v>
       </c>
@@ -10156,13 +7149,13 @@
         <v>115</v>
       </c>
       <c r="D52" s="84"/>
-      <c r="E52" s="167">
+      <c r="E52" s="163">
         <f si="0" t="shared"/>
         <v>1616.63</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="164"/>
+      <c r="A53" s="230"/>
       <c r="B53" s="84" t="s">
         <v>144</v>
       </c>
@@ -10170,13 +7163,13 @@
         <v>102</v>
       </c>
       <c r="D53" s="84"/>
-      <c r="E53" s="167">
+      <c r="E53" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" s="164"/>
+      <c r="A54" s="230"/>
       <c r="B54" s="84" t="s">
         <v>145</v>
       </c>
@@ -10184,13 +7177,13 @@
         <v>102</v>
       </c>
       <c r="D54" s="84"/>
-      <c r="E54" s="167">
+      <c r="E54" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" s="164"/>
+      <c r="A55" s="230"/>
       <c r="B55" s="84" t="s">
         <v>146</v>
       </c>
@@ -10198,25 +7191,25 @@
         <v>102</v>
       </c>
       <c r="D55" s="84"/>
-      <c r="E55" s="167">
+      <c r="E55" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="164"/>
+      <c r="A56" s="230"/>
       <c r="B56" s="84" t="s">
         <v>147</v>
       </c>
       <c r="C56" s="84"/>
       <c r="D56" s="84"/>
-      <c r="E56" s="167">
+      <c r="E56" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="164"/>
+      <c r="A57" s="230"/>
       <c r="B57" s="84" t="s">
         <v>148</v>
       </c>
@@ -10224,13 +7217,13 @@
         <v>160</v>
       </c>
       <c r="D57" s="84"/>
-      <c r="E57" s="167">
+      <c r="E57" s="163">
         <f si="0" t="shared"/>
         <v>-6.9099999999999995E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="164"/>
+      <c r="A58" s="230"/>
       <c r="B58" s="84" t="s">
         <v>149</v>
       </c>
@@ -10238,13 +7231,13 @@
         <v>161</v>
       </c>
       <c r="D58" s="84"/>
-      <c r="E58" s="167">
+      <c r="E58" s="163">
         <f si="0" t="shared"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="164" t="s">
+      <c r="A59" s="230" t="s">
         <v>151</v>
       </c>
       <c r="B59" s="84" t="s">
@@ -10254,13 +7247,13 @@
         <v>162</v>
       </c>
       <c r="D59" s="84"/>
-      <c r="E59" s="167">
+      <c r="E59" s="163">
         <f si="0" t="shared"/>
         <v>13169.84</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" s="164"/>
+      <c r="A60" s="230"/>
       <c r="B60" s="84" t="s">
         <v>38</v>
       </c>
@@ -10268,13 +7261,13 @@
         <v>163</v>
       </c>
       <c r="D60" s="84"/>
-      <c r="E60" s="167">
+      <c r="E60" s="163">
         <f si="0" t="shared"/>
         <v>14380.02</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" s="164"/>
+      <c r="A61" s="230"/>
       <c r="B61" s="84" t="s">
         <v>139</v>
       </c>
@@ -10282,13 +7275,13 @@
         <v>164</v>
       </c>
       <c r="D61" s="84"/>
-      <c r="E61" s="167">
+      <c r="E61" s="163">
         <f si="0" t="shared"/>
         <v>14257.09</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="164"/>
+      <c r="A62" s="230"/>
       <c r="B62" s="84" t="s">
         <v>145</v>
       </c>
@@ -10296,13 +7289,13 @@
         <v>165</v>
       </c>
       <c r="D62" s="84"/>
-      <c r="E62" s="167">
+      <c r="E62" s="163">
         <f si="0" t="shared"/>
         <v>11.83</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" s="164"/>
+      <c r="A63" s="230"/>
       <c r="B63" s="84" t="s">
         <v>146</v>
       </c>
@@ -10310,13 +7303,13 @@
         <v>166</v>
       </c>
       <c r="D63" s="84"/>
-      <c r="E63" s="167">
+      <c r="E63" s="163">
         <f si="0" t="shared"/>
         <v>12.8</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" s="164"/>
+      <c r="A64" s="230"/>
       <c r="B64" s="84" t="s">
         <v>143</v>
       </c>
@@ -10324,13 +7317,13 @@
         <v>167</v>
       </c>
       <c r="D64" s="84"/>
-      <c r="E64" s="167">
+      <c r="E64" s="163">
         <f si="0" t="shared"/>
         <v>14345.09</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="164"/>
+      <c r="A65" s="230"/>
       <c r="B65" s="84" t="s">
         <v>13</v>
       </c>
@@ -10338,13 +7331,13 @@
         <v>168</v>
       </c>
       <c r="D65" s="84"/>
-      <c r="E65" s="167">
+      <c r="E65" s="163">
         <f si="0" t="shared"/>
         <v>1086.25</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A66" s="164"/>
+      <c r="A66" s="230"/>
       <c r="B66" s="84" t="s">
         <v>144</v>
       </c>
@@ -10352,13 +7345,13 @@
         <v>102</v>
       </c>
       <c r="D66" s="84"/>
-      <c r="E66" s="167">
+      <c r="E66" s="163">
         <f si="0" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67" s="164"/>
+      <c r="A67" s="230"/>
       <c r="B67" s="84" t="s">
         <v>15</v>
       </c>
@@ -10366,13 +7359,13 @@
         <v>102</v>
       </c>
       <c r="D67" s="84"/>
-      <c r="E67" s="167">
+      <c r="E67" s="163">
         <f ref="E67:E79" si="1" t="shared">C67-D67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="164" t="s">
+      <c r="A68" s="230" t="s">
         <v>152</v>
       </c>
       <c r="B68" s="84" t="s">
@@ -10382,13 +7375,13 @@
         <v>101</v>
       </c>
       <c r="D68" s="84"/>
-      <c r="E68" s="167">
+      <c r="E68" s="163">
         <f si="1" t="shared"/>
         <v>1483.76</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A69" s="164"/>
+      <c r="A69" s="230"/>
       <c r="B69" s="84" t="s">
         <v>13</v>
       </c>
@@ -10396,13 +7389,13 @@
         <v>104</v>
       </c>
       <c r="D69" s="84"/>
-      <c r="E69" s="167">
+      <c r="E69" s="163">
         <f si="1" t="shared"/>
         <v>122.36</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="164"/>
+      <c r="A70" s="230"/>
       <c r="B70" s="84" t="s">
         <v>153</v>
       </c>
@@ -10410,13 +7403,13 @@
         <v>102</v>
       </c>
       <c r="D70" s="84"/>
-      <c r="E70" s="167">
+      <c r="E70" s="163">
         <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="164"/>
+      <c r="A71" s="230"/>
       <c r="B71" s="84" t="s">
         <v>154</v>
       </c>
@@ -10424,13 +7417,13 @@
         <v>102</v>
       </c>
       <c r="D71" s="84"/>
-      <c r="E71" s="167">
+      <c r="E71" s="163">
         <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A72" s="164"/>
+      <c r="A72" s="230"/>
       <c r="B72" s="84" t="s">
         <v>132</v>
       </c>
@@ -10438,13 +7431,13 @@
         <v>106</v>
       </c>
       <c r="D72" s="84"/>
-      <c r="E72" s="167">
+      <c r="E72" s="163">
         <f si="1" t="shared"/>
         <v>9.7100000000000009</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73" s="164"/>
+      <c r="A73" s="230"/>
       <c r="B73" s="84" t="s">
         <v>143</v>
       </c>
@@ -10452,13 +7445,13 @@
         <v>110</v>
       </c>
       <c r="D73" s="84"/>
-      <c r="E73" s="167">
+      <c r="E73" s="163">
         <f si="1" t="shared"/>
         <v>1606.12</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="164" t="s">
+      <c r="A74" s="230" t="s">
         <v>155</v>
       </c>
       <c r="B74" s="84" t="s">
@@ -10468,13 +7461,13 @@
         <v>169</v>
       </c>
       <c r="D74" s="84"/>
-      <c r="E74" s="167">
+      <c r="E74" s="163">
         <f si="1" t="shared"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A75" s="164"/>
+      <c r="A75" s="230"/>
       <c r="B75" s="84" t="s">
         <v>132</v>
       </c>
@@ -10482,13 +7475,13 @@
         <v>102</v>
       </c>
       <c r="D75" s="84"/>
-      <c r="E75" s="167">
+      <c r="E75" s="163">
         <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A76" s="164"/>
+      <c r="A76" s="230"/>
       <c r="B76" s="84" t="s">
         <v>13</v>
       </c>
@@ -10496,13 +7489,13 @@
         <v>170</v>
       </c>
       <c r="D76" s="84"/>
-      <c r="E76" s="167">
+      <c r="E76" s="163">
         <f si="1" t="shared"/>
         <v>0.81</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="164"/>
+      <c r="A77" s="230"/>
       <c r="B77" s="84" t="s">
         <v>156</v>
       </c>
@@ -10510,13 +7503,13 @@
         <v>102</v>
       </c>
       <c r="D77" s="84"/>
-      <c r="E77" s="167">
+      <c r="E77" s="163">
         <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A78" s="164"/>
+      <c r="A78" s="230"/>
       <c r="B78" s="84" t="s">
         <v>157</v>
       </c>
@@ -10524,13 +7517,13 @@
         <v>102</v>
       </c>
       <c r="D78" s="84"/>
-      <c r="E78" s="167">
+      <c r="E78" s="163">
         <f si="1" t="shared"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A79" s="164"/>
+      <c r="A79" s="230"/>
       <c r="B79" s="84" t="s">
         <v>143</v>
       </c>
@@ -10538,7 +7531,7 @@
         <v>171</v>
       </c>
       <c r="D79" s="84"/>
-      <c r="E79" s="167">
+      <c r="E79" s="163">
         <f si="1" t="shared"/>
         <v>10.61</v>
       </c>
@@ -10559,10 +7552,10 @@
     <mergeCell ref="A7:A11"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:E79">
-    <cfRule dxfId="26" operator="greaterThan" priority="2" type="cellIs">
+    <cfRule dxfId="1" operator="greaterThan" priority="2" type="cellIs">
       <formula>0</formula>
     </cfRule>
-    <cfRule dxfId="25" operator="equal" priority="3" type="cellIs">
+    <cfRule dxfId="0" operator="equal" priority="3" type="cellIs">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
+++ b/Sale Report Excel Comparison/BO_Data_Comparision_Report.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="234">
   <si>
     <t>Sales</t>
   </si>
@@ -735,6 +735,12 @@
   </si>
   <si>
     <t>3.00</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>00:00</t>
   </si>
 </sst>
 </file>
@@ -742,7 +748,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="234" x14ac:knownFonts="1">
+  <fonts count="240" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1822,6 +1828,30 @@
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1944,7 +1974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2104,11 +2134,135 @@
         <color indexed="8"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="256">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
@@ -2792,61 +2946,79 @@
     <xf applyAlignment="1" applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="216" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="218" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="219" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="225" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="230" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="232" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="14" xfId="0" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="216" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="217" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="218" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="219" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="221" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="223" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="224" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="226" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="228" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="229" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="230" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="232" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="14" fillId="0" fontId="233" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="234" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyBorder="true" applyFont="true" borderId="22" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4244,7 +4416,9 @@
       <c r="O22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="250" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
@@ -4262,7 +4436,9 @@
       <c r="E23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="253" t="s">
+        <v>120</v>
+      </c>
       <c r="G23" s="1" t="s">
         <v>28</v>
       </c>
@@ -4302,7 +4478,9 @@
       <c r="E24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="254" t="s">
+        <v>209</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>29</v>
       </c>
@@ -4384,7 +4562,9 @@
       <c r="E26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="255" t="s">
+        <v>233</v>
+      </c>
       <c r="G26" s="1" t="s">
         <v>224</v>
       </c>
@@ -4602,7 +4782,9 @@
       <c r="O30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="251" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
@@ -4650,7 +4832,9 @@
       <c r="O31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="252" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
